--- a/Factures_Excel/1112 - Vignoble Kobloth et Fils Inc.xlsx
+++ b/Factures_Excel/1112 - Vignoble Kobloth et Fils Inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2835BF6F-119B-443F-8C08-E82917583091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396B2E75-6F2A-47E4-87FD-92B964B64CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="17-12-12" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="09-08-24" sheetId="12" r:id="rId9"/>
     <sheet name="Activités" sheetId="5" r:id="rId10"/>
     <sheet name="2024-11-02 - 24-24579" sheetId="14" r:id="rId11"/>
+    <sheet name="2025-02-01 - 25-24742" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="dnrServices" localSheetId="8">OFFSET(#REF!,,,COUNTA(#REF!)-1,1)</definedName>
@@ -42,6 +43,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'17-12-12'!$A$1:$F$95</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'18-02-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-11-02 - 24-24579'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'2025-02-01 - 25-24742'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-05-13'!$A$1:$F$95</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'23-10-12'!$A$1:$F$95</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'28-06-13'!$A$1:$F$95</definedName>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="114">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -409,6 +411,12 @@
   <si>
     <t>24-24579</t>
   </si>
+  <si>
+    <t>Le 1 FÉVRIER 2025</t>
+  </si>
+  <si>
+    <t>25-24742</t>
+  </si>
 </sst>
 </file>
 
@@ -426,7 +434,7 @@
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -766,6 +774,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -999,7 +1016,7 @@
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1444,6 +1461,39 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="50" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1471,11 +1521,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1483,33 +1554,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1552,38 +1596,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="50" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1773,6 +1811,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11265" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AFEEB8-03DB-B31D-7907-F81433705A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3087,19 +3191,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="200"/>
-      <c r="D83" s="200"/>
+      <c r="B83" s="211"/>
+      <c r="C83" s="211"/>
+      <c r="D83" s="211"/>
       <c r="E83" s="57"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="201" t="s">
+      <c r="B84" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="201"/>
-      <c r="D84" s="201"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="57">
         <v>0</v>
       </c>
@@ -3107,9 +3211,9 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="200"/>
-      <c r="C85" s="200"/>
-      <c r="D85" s="200"/>
+      <c r="B85" s="211"/>
+      <c r="C85" s="211"/>
+      <c r="D85" s="211"/>
       <c r="E85" s="57"/>
       <c r="F85" s="46"/>
     </row>
@@ -3144,31 +3248,31 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="202"/>
-      <c r="D89" s="202"/>
-      <c r="E89" s="202"/>
+      <c r="B89" s="213"/>
+      <c r="C89" s="213"/>
+      <c r="D89" s="213"/>
+      <c r="E89" s="213"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="203" t="s">
+      <c r="A90" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="203"/>
-      <c r="C90" s="203"/>
-      <c r="D90" s="203"/>
-      <c r="E90" s="203"/>
-      <c r="F90" s="203"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="214"/>
+      <c r="D90" s="214"/>
+      <c r="E90" s="214"/>
+      <c r="F90" s="214"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="204" t="s">
+      <c r="A91" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="204"/>
-      <c r="C91" s="204"/>
-      <c r="D91" s="204"/>
-      <c r="E91" s="204"/>
-      <c r="F91" s="204"/>
+      <c r="B91" s="215"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -3180,26 +3284,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="196"/>
-      <c r="D93" s="196"/>
-      <c r="E93" s="196"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="207"/>
+      <c r="E93" s="207"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="197" t="s">
+      <c r="A94" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="197"/>
-      <c r="C94" s="197"/>
-      <c r="D94" s="197"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
+      <c r="B94" s="208"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="208"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="208"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="198"/>
-      <c r="C96" s="199"/>
-      <c r="D96" s="199"/>
+      <c r="B96" s="209"/>
+      <c r="C96" s="210"/>
+      <c r="D96" s="210"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -3209,6 +3313,44 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="B34:D34"/>
@@ -3221,44 +3363,6 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B85 B12:B20 B34:B74" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -3293,10 +3397,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="231"/>
+      <c r="C1" s="240"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3673,7 +3777,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -3934,13 +4038,13 @@
       <c r="F29" s="95"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="219" t="s">
+      <c r="A30" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="219"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
+      <c r="B30" s="228"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
       <c r="F30" s="96"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4209,15 +4313,15 @@
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="98"/>
-      <c r="B63" s="232"/>
-      <c r="C63" s="233"/>
-      <c r="D63" s="234"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="198"/>
       <c r="E63" s="104"/>
       <c r="F63" s="105"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="98"/>
-      <c r="B64" s="232"/>
+      <c r="B64" s="196"/>
       <c r="C64" s="177"/>
       <c r="D64" s="101"/>
       <c r="E64" s="105"/>
@@ -4226,30 +4330,30 @@
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="98"/>
       <c r="B65" s="102"/>
-      <c r="C65" s="235"/>
-      <c r="D65" s="236"/>
+      <c r="C65" s="199"/>
+      <c r="D65" s="200"/>
       <c r="E65" s="105"/>
       <c r="F65" s="105"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="98"/>
       <c r="B66" s="102"/>
-      <c r="C66" s="237"/>
-      <c r="D66" s="238"/>
+      <c r="C66" s="201"/>
+      <c r="D66" s="202"/>
       <c r="E66" s="117"/>
       <c r="F66" s="117"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="98"/>
-      <c r="B67" s="232"/>
-      <c r="C67" s="237"/>
-      <c r="D67" s="238"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="202"/>
       <c r="E67" s="105"/>
       <c r="F67" s="105"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="98"/>
-      <c r="B68" s="232"/>
+      <c r="B68" s="196"/>
       <c r="C68" s="119"/>
       <c r="D68" s="119"/>
       <c r="E68" s="119"/>
@@ -4393,12 +4497,12 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="85"/>
-      <c r="B81" s="239" t="s">
+      <c r="B81" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="240"/>
-      <c r="D81" s="241"/>
-      <c r="E81" s="242">
+      <c r="C81" s="242"/>
+      <c r="D81" s="203"/>
+      <c r="E81" s="204">
         <v>563.38</v>
       </c>
       <c r="F81" s="88"/>
@@ -4413,30 +4517,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="138"/>
-      <c r="B83" s="222"/>
-      <c r="C83" s="223"/>
-      <c r="D83" s="223"/>
-      <c r="E83" s="223"/>
+      <c r="B83" s="231"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
       <c r="F83" s="139"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="224" t="s">
+      <c r="A84" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="224"/>
-      <c r="C84" s="224"/>
-      <c r="D84" s="224"/>
-      <c r="E84" s="224"/>
+      <c r="B84" s="233"/>
+      <c r="C84" s="233"/>
+      <c r="D84" s="233"/>
+      <c r="E84" s="233"/>
       <c r="F84" s="68"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="225" t="s">
+      <c r="A85" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="225"/>
-      <c r="C85" s="225"/>
-      <c r="D85" s="225"/>
-      <c r="E85" s="225"/>
+      <c r="B85" s="234"/>
+      <c r="C85" s="234"/>
+      <c r="D85" s="234"/>
+      <c r="E85" s="234"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4456,14 +4560,825 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="218" t="s">
+      <c r="A88" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="218"/>
-      <c r="C88" s="218"/>
-      <c r="D88" s="218"/>
-      <c r="E88" s="218"/>
-      <c r="F88" s="218"/>
+      <c r="B88" s="227"/>
+      <c r="C88" s="227"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="227"/>
+      <c r="F88" s="227"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA184A58-2B7F-4F91-99B2-0099C45B2C35}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="81"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="81"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="81"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="81"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="81"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="81"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="81"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="85"/>
+      <c r="B21" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="85"/>
+      <c r="B23" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="85"/>
+      <c r="B24" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="85"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="86"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="85"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="92"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="228"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="96"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="98"/>
+      <c r="B32" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="98"/>
+      <c r="B34" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="243"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="98"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="98"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="98"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="98"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="98"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="98"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="98"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="243"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="98"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="243"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="98"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="243"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="98"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="243"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="98"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="243"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="98"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="243"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="98"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="243"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="98"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="243"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="98"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="243"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="98"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="245"/>
+      <c r="D50" s="245"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="98"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="243"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="98"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="243"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="98"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="243"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="98"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="243"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="98"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="243"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="98"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="98"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="98"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="243"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="98"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="243"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="98"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="98"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="243"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="98"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="243"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="98"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="246"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="98"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="177"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="98"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="248"/>
+      <c r="D65" s="249"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="98"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="201"/>
+      <c r="D66" s="202"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="98"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="202"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="98"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="98"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="85"/>
+      <c r="B69" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="120"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="121">
+        <v>490</v>
+      </c>
+      <c r="F69" s="121"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="85"/>
+      <c r="B70" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="59"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="123">
+        <v>0</v>
+      </c>
+      <c r="F70" s="123"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="85"/>
+      <c r="B71" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="59"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="123">
+        <v>0</v>
+      </c>
+      <c r="F71" s="123"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="85"/>
+      <c r="B72" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="59"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="123">
+        <v>0</v>
+      </c>
+      <c r="F72" s="123"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="85"/>
+      <c r="B73" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="120"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="125">
+        <v>490</v>
+      </c>
+      <c r="F73" s="125"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="85"/>
+      <c r="B74" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="126">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="59"/>
+      <c r="E74" s="127">
+        <v>24.5</v>
+      </c>
+      <c r="F74" s="127"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="85"/>
+      <c r="B75" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="129">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="59"/>
+      <c r="E75" s="130">
+        <v>48.88</v>
+      </c>
+      <c r="F75" s="127"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="85"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="85"/>
+      <c r="B77" s="131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="120"/>
+      <c r="D77" s="132"/>
+      <c r="E77" s="133">
+        <v>563.38</v>
+      </c>
+      <c r="F77" s="134"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="85"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="128"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="135"/>
+      <c r="F78" s="128"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="85"/>
+      <c r="B79" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="128"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="88">
+        <v>0</v>
+      </c>
+      <c r="F79" s="88"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="85"/>
+      <c r="B80" s="120"/>
+      <c r="C80" s="128"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="135"/>
+      <c r="F80" s="128"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="85"/>
+      <c r="B81" s="241" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="242"/>
+      <c r="D81" s="203"/>
+      <c r="E81" s="204">
+        <v>563.38</v>
+      </c>
+      <c r="F81" s="88"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="85"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="138"/>
+      <c r="B83" s="231"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="139"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="233" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="233"/>
+      <c r="C84" s="233"/>
+      <c r="D84" s="233"/>
+      <c r="E84" s="233"/>
+      <c r="F84" s="68"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="234" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="234"/>
+      <c r="C85" s="234"/>
+      <c r="D85" s="234"/>
+      <c r="E85" s="234"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="140"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="140"/>
+      <c r="B87" s="140"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="227"/>
+      <c r="C88" s="227"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="227"/>
+      <c r="F88" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4476,7 +5391,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5103,19 +6018,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="200"/>
-      <c r="D83" s="200"/>
+      <c r="B83" s="211"/>
+      <c r="C83" s="211"/>
+      <c r="D83" s="211"/>
       <c r="E83" s="57"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="201" t="s">
+      <c r="B84" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="201"/>
-      <c r="D84" s="201"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="57">
         <v>0</v>
       </c>
@@ -5123,9 +6038,9 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="200"/>
-      <c r="C85" s="200"/>
-      <c r="D85" s="200"/>
+      <c r="B85" s="211"/>
+      <c r="C85" s="211"/>
+      <c r="D85" s="211"/>
       <c r="E85" s="57"/>
       <c r="F85" s="46"/>
     </row>
@@ -5160,31 +6075,31 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="202"/>
-      <c r="D89" s="202"/>
-      <c r="E89" s="202"/>
+      <c r="B89" s="213"/>
+      <c r="C89" s="213"/>
+      <c r="D89" s="213"/>
+      <c r="E89" s="213"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="203" t="s">
+      <c r="A90" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="203"/>
-      <c r="C90" s="203"/>
-      <c r="D90" s="203"/>
-      <c r="E90" s="203"/>
-      <c r="F90" s="203"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="214"/>
+      <c r="D90" s="214"/>
+      <c r="E90" s="214"/>
+      <c r="F90" s="214"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="204" t="s">
+      <c r="A91" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="204"/>
-      <c r="C91" s="204"/>
-      <c r="D91" s="204"/>
-      <c r="E91" s="204"/>
-      <c r="F91" s="204"/>
+      <c r="B91" s="215"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -5196,26 +6111,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="196"/>
-      <c r="D93" s="196"/>
-      <c r="E93" s="196"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="207"/>
+      <c r="E93" s="207"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="197" t="s">
+      <c r="A94" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="197"/>
-      <c r="C94" s="197"/>
-      <c r="D94" s="197"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
+      <c r="B94" s="208"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="208"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="208"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="198"/>
-      <c r="C96" s="199"/>
-      <c r="D96" s="199"/>
+      <c r="B96" s="209"/>
+      <c r="C96" s="210"/>
+      <c r="D96" s="210"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -5225,14 +6140,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B64:D64"/>
@@ -5247,29 +6177,14 @@
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A94:F94"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B85 B12:B20 B34:B74" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -5905,19 +6820,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="200"/>
-      <c r="D83" s="200"/>
+      <c r="B83" s="211"/>
+      <c r="C83" s="211"/>
+      <c r="D83" s="211"/>
       <c r="E83" s="57"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="201" t="s">
+      <c r="B84" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="201"/>
-      <c r="D84" s="201"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="57">
         <v>0</v>
       </c>
@@ -5925,9 +6840,9 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="200"/>
-      <c r="C85" s="200"/>
-      <c r="D85" s="200"/>
+      <c r="B85" s="211"/>
+      <c r="C85" s="211"/>
+      <c r="D85" s="211"/>
       <c r="E85" s="57"/>
       <c r="F85" s="46"/>
     </row>
@@ -5962,31 +6877,31 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="202"/>
-      <c r="D89" s="202"/>
-      <c r="E89" s="202"/>
+      <c r="B89" s="213"/>
+      <c r="C89" s="213"/>
+      <c r="D89" s="213"/>
+      <c r="E89" s="213"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="203" t="s">
+      <c r="A90" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="203"/>
-      <c r="C90" s="203"/>
-      <c r="D90" s="203"/>
-      <c r="E90" s="203"/>
-      <c r="F90" s="203"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="214"/>
+      <c r="D90" s="214"/>
+      <c r="E90" s="214"/>
+      <c r="F90" s="214"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="204" t="s">
+      <c r="A91" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="204"/>
-      <c r="C91" s="204"/>
-      <c r="D91" s="204"/>
-      <c r="E91" s="204"/>
-      <c r="F91" s="204"/>
+      <c r="B91" s="215"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -5998,26 +6913,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="196"/>
-      <c r="D93" s="196"/>
-      <c r="E93" s="196"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="207"/>
+      <c r="E93" s="207"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="197" t="s">
+      <c r="A94" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="197"/>
-      <c r="C94" s="197"/>
-      <c r="D94" s="197"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
+      <c r="B94" s="208"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="208"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="208"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="198"/>
-      <c r="C96" s="199"/>
-      <c r="D96" s="199"/>
+      <c r="B96" s="209"/>
+      <c r="C96" s="210"/>
+      <c r="D96" s="210"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -6027,30 +6942,15 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
@@ -6063,15 +6963,30 @@
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B85 B12:B20 B34:B74" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -6707,19 +7622,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="200"/>
-      <c r="D83" s="200"/>
+      <c r="B83" s="211"/>
+      <c r="C83" s="211"/>
+      <c r="D83" s="211"/>
       <c r="E83" s="57"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="201" t="s">
+      <c r="B84" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="201"/>
-      <c r="D84" s="201"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="57">
         <v>0</v>
       </c>
@@ -6727,9 +7642,9 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="200"/>
-      <c r="C85" s="200"/>
-      <c r="D85" s="200"/>
+      <c r="B85" s="211"/>
+      <c r="C85" s="211"/>
+      <c r="D85" s="211"/>
       <c r="E85" s="57"/>
       <c r="F85" s="46"/>
     </row>
@@ -6764,31 +7679,31 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="202"/>
-      <c r="D89" s="202"/>
-      <c r="E89" s="202"/>
+      <c r="B89" s="213"/>
+      <c r="C89" s="213"/>
+      <c r="D89" s="213"/>
+      <c r="E89" s="213"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="203" t="s">
+      <c r="A90" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="203"/>
-      <c r="C90" s="203"/>
-      <c r="D90" s="203"/>
-      <c r="E90" s="203"/>
-      <c r="F90" s="203"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="214"/>
+      <c r="D90" s="214"/>
+      <c r="E90" s="214"/>
+      <c r="F90" s="214"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="204" t="s">
+      <c r="A91" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="204"/>
-      <c r="C91" s="204"/>
-      <c r="D91" s="204"/>
-      <c r="E91" s="204"/>
-      <c r="F91" s="204"/>
+      <c r="B91" s="215"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -6800,26 +7715,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="196"/>
-      <c r="D93" s="196"/>
-      <c r="E93" s="196"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="207"/>
+      <c r="E93" s="207"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="197" t="s">
+      <c r="A94" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="197"/>
-      <c r="C94" s="197"/>
-      <c r="D94" s="197"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
+      <c r="B94" s="208"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="208"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="208"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="198"/>
-      <c r="C96" s="199"/>
-      <c r="D96" s="199"/>
+      <c r="B96" s="209"/>
+      <c r="C96" s="210"/>
+      <c r="D96" s="210"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -6829,27 +7744,15 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B62:D62"/>
@@ -6865,15 +7768,27 @@
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B85 B12:B20 B34:B74" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -7030,14 +7945,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="210" t="s">
+      <c r="A30" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -7058,285 +7973,285 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="209"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
+      <c r="C34" s="220"/>
+      <c r="D34" s="220"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="209" t="s">
+      <c r="B36" s="220" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="209"/>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="209" t="s">
+      <c r="B38" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="209"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="209" t="s">
+      <c r="B40" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="209"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="220"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="209" t="s">
+      <c r="B42" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="209"/>
-      <c r="D42" s="209"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="209"/>
-      <c r="C43" s="209"/>
-      <c r="D43" s="209"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="209" t="s">
+      <c r="B44" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="209"/>
-      <c r="C45" s="209"/>
-      <c r="D45" s="209"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="209" t="s">
+      <c r="B46" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="209"/>
-      <c r="D46" s="209"/>
+      <c r="C46" s="220"/>
+      <c r="D46" s="220"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="209"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="209" t="s">
+      <c r="B48" s="220" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="209"/>
-      <c r="D48" s="209"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="220"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="209"/>
-      <c r="C49" s="209"/>
-      <c r="D49" s="209"/>
+      <c r="B49" s="220"/>
+      <c r="C49" s="220"/>
+      <c r="D49" s="220"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="209" t="s">
+      <c r="B50" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="209"/>
-      <c r="D50" s="209"/>
+      <c r="C50" s="220"/>
+      <c r="D50" s="220"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="209"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="209"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="209" t="s">
+      <c r="B52" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="209"/>
-      <c r="D52" s="209"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="220"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="209"/>
-      <c r="C53" s="209"/>
-      <c r="D53" s="209"/>
+      <c r="B53" s="220"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="209" t="s">
+      <c r="B54" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="209"/>
-      <c r="D54" s="209"/>
+      <c r="C54" s="220"/>
+      <c r="D54" s="220"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="209"/>
-      <c r="C55" s="209"/>
-      <c r="D55" s="209"/>
+      <c r="B55" s="220"/>
+      <c r="C55" s="220"/>
+      <c r="D55" s="220"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="209" t="s">
+      <c r="B56" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="209"/>
-      <c r="D56" s="209"/>
+      <c r="C56" s="220"/>
+      <c r="D56" s="220"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="209"/>
-      <c r="C57" s="209"/>
-      <c r="D57" s="209"/>
+      <c r="B57" s="220"/>
+      <c r="C57" s="220"/>
+      <c r="D57" s="220"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="209" t="s">
+      <c r="B58" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="209"/>
-      <c r="D58" s="209"/>
+      <c r="C58" s="220"/>
+      <c r="D58" s="220"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="209"/>
-      <c r="C59" s="209"/>
-      <c r="D59" s="209"/>
+      <c r="B59" s="220"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="209" t="s">
+      <c r="B60" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="209"/>
-      <c r="D60" s="209"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="209"/>
-      <c r="C61" s="209"/>
-      <c r="D61" s="209"/>
+      <c r="B61" s="220"/>
+      <c r="C61" s="220"/>
+      <c r="D61" s="220"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="209"/>
-      <c r="C62" s="209"/>
-      <c r="D62" s="209"/>
+      <c r="B62" s="220"/>
+      <c r="C62" s="220"/>
+      <c r="D62" s="220"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="209"/>
-      <c r="C63" s="209"/>
-      <c r="D63" s="209"/>
+      <c r="B63" s="220"/>
+      <c r="C63" s="220"/>
+      <c r="D63" s="220"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="209"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="220"/>
+      <c r="D64" s="220"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -7366,17 +8281,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="209"/>
-      <c r="C67" s="209"/>
-      <c r="D67" s="209"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="220"/>
+      <c r="D67" s="220"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="209"/>
-      <c r="C68" s="209"/>
-      <c r="D68" s="209"/>
+      <c r="B68" s="220"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="220"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -7483,19 +8398,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="211"/>
-      <c r="C77" s="211"/>
-      <c r="D77" s="211"/>
+      <c r="B77" s="224"/>
+      <c r="C77" s="224"/>
+      <c r="D77" s="224"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="216" t="s">
+      <c r="B78" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="216"/>
-      <c r="D78" s="216"/>
+      <c r="C78" s="221"/>
+      <c r="D78" s="221"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -7503,9 +8418,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="211"/>
-      <c r="C79" s="211"/>
-      <c r="D79" s="211"/>
+      <c r="B79" s="224"/>
+      <c r="C79" s="224"/>
+      <c r="D79" s="224"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -7540,31 +8455,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="214"/>
-      <c r="C83" s="214"/>
-      <c r="D83" s="214"/>
-      <c r="E83" s="214"/>
+      <c r="B83" s="218"/>
+      <c r="C83" s="218"/>
+      <c r="D83" s="218"/>
+      <c r="E83" s="218"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="208" t="s">
+      <c r="A84" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="208"/>
-      <c r="C84" s="208"/>
-      <c r="D84" s="208"/>
-      <c r="E84" s="208"/>
-      <c r="F84" s="208"/>
+      <c r="B84" s="226"/>
+      <c r="C84" s="226"/>
+      <c r="D84" s="226"/>
+      <c r="E84" s="226"/>
+      <c r="F84" s="226"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="217" t="s">
+      <c r="A85" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="217"/>
-      <c r="C85" s="217"/>
-      <c r="D85" s="217"/>
-      <c r="E85" s="217"/>
-      <c r="F85" s="217"/>
+      <c r="B85" s="222"/>
+      <c r="C85" s="222"/>
+      <c r="D85" s="222"/>
+      <c r="E85" s="222"/>
+      <c r="F85" s="222"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -7576,26 +8491,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="215"/>
-      <c r="C87" s="215"/>
-      <c r="D87" s="215"/>
-      <c r="E87" s="215"/>
+      <c r="B87" s="219"/>
+      <c r="C87" s="219"/>
+      <c r="D87" s="219"/>
+      <c r="E87" s="219"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="207" t="s">
+      <c r="A88" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="207"/>
-      <c r="C88" s="207"/>
-      <c r="D88" s="207"/>
-      <c r="E88" s="207"/>
-      <c r="F88" s="207"/>
+      <c r="B88" s="225"/>
+      <c r="C88" s="225"/>
+      <c r="D88" s="225"/>
+      <c r="E88" s="225"/>
+      <c r="F88" s="225"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="212"/>
-      <c r="C90" s="213"/>
-      <c r="D90" s="213"/>
+      <c r="B90" s="216"/>
+      <c r="C90" s="217"/>
+      <c r="D90" s="217"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7605,6 +8520,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -7621,34 +8564,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -7807,14 +8722,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="210" t="s">
+      <c r="A30" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -7835,273 +8750,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="209"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="209"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="220"/>
+      <c r="D34" s="220"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="220" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="209"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="209" t="s">
+      <c r="B37" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="209" t="s">
+      <c r="B39" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="209"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="209" t="s">
+      <c r="B41" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="220"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="209"/>
-      <c r="C42" s="209"/>
-      <c r="D42" s="209"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="209" t="s">
+      <c r="B43" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="209"/>
-      <c r="D43" s="209"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="209"/>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="209" t="s">
+      <c r="B45" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="209"/>
-      <c r="D45" s="209"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="209"/>
-      <c r="C46" s="209"/>
-      <c r="D46" s="209"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="220"/>
+      <c r="D46" s="220"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="209" t="s">
+      <c r="B47" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="209"/>
-      <c r="C48" s="209"/>
-      <c r="D48" s="209"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="220"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="209" t="s">
+      <c r="B49" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="209"/>
-      <c r="D49" s="209"/>
+      <c r="C49" s="220"/>
+      <c r="D49" s="220"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="209"/>
-      <c r="C50" s="209"/>
-      <c r="D50" s="209"/>
+      <c r="B50" s="220"/>
+      <c r="C50" s="220"/>
+      <c r="D50" s="220"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="209"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="209"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="209"/>
-      <c r="C52" s="209"/>
-      <c r="D52" s="209"/>
+      <c r="B52" s="220"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="220"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="209"/>
-      <c r="C53" s="209"/>
-      <c r="D53" s="209"/>
+      <c r="B53" s="220"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="209"/>
-      <c r="C54" s="209"/>
-      <c r="D54" s="209"/>
+      <c r="B54" s="220"/>
+      <c r="C54" s="220"/>
+      <c r="D54" s="220"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="209"/>
-      <c r="C55" s="209"/>
-      <c r="D55" s="209"/>
+      <c r="B55" s="220"/>
+      <c r="C55" s="220"/>
+      <c r="D55" s="220"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="209"/>
-      <c r="C56" s="209"/>
-      <c r="D56" s="209"/>
+      <c r="B56" s="220"/>
+      <c r="C56" s="220"/>
+      <c r="D56" s="220"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="209"/>
-      <c r="C57" s="209"/>
-      <c r="D57" s="209"/>
+      <c r="B57" s="220"/>
+      <c r="C57" s="220"/>
+      <c r="D57" s="220"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="209"/>
-      <c r="C58" s="209"/>
-      <c r="D58" s="209"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="220"/>
+      <c r="D58" s="220"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="209"/>
-      <c r="C59" s="209"/>
-      <c r="D59" s="209"/>
+      <c r="B59" s="220"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="209"/>
-      <c r="C60" s="209"/>
-      <c r="D60" s="209"/>
+      <c r="B60" s="220"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="209"/>
-      <c r="C61" s="209"/>
-      <c r="D61" s="209"/>
+      <c r="B61" s="220"/>
+      <c r="C61" s="220"/>
+      <c r="D61" s="220"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="209"/>
-      <c r="C62" s="209"/>
-      <c r="D62" s="209"/>
+      <c r="B62" s="220"/>
+      <c r="C62" s="220"/>
+      <c r="D62" s="220"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="209"/>
-      <c r="C63" s="209"/>
-      <c r="D63" s="209"/>
+      <c r="B63" s="220"/>
+      <c r="C63" s="220"/>
+      <c r="D63" s="220"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="209"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="220"/>
+      <c r="D64" s="220"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -8131,17 +9046,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="209"/>
-      <c r="C67" s="209"/>
-      <c r="D67" s="209"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="220"/>
+      <c r="D67" s="220"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="209"/>
-      <c r="C68" s="209"/>
-      <c r="D68" s="209"/>
+      <c r="B68" s="220"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="220"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -8248,19 +9163,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="211"/>
-      <c r="C77" s="211"/>
-      <c r="D77" s="211"/>
+      <c r="B77" s="224"/>
+      <c r="C77" s="224"/>
+      <c r="D77" s="224"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="216" t="s">
+      <c r="B78" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="216"/>
-      <c r="D78" s="216"/>
+      <c r="C78" s="221"/>
+      <c r="D78" s="221"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -8268,9 +9183,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="211"/>
-      <c r="C79" s="211"/>
-      <c r="D79" s="211"/>
+      <c r="B79" s="224"/>
+      <c r="C79" s="224"/>
+      <c r="D79" s="224"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -8305,31 +9220,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="214"/>
-      <c r="C83" s="214"/>
-      <c r="D83" s="214"/>
-      <c r="E83" s="214"/>
+      <c r="B83" s="218"/>
+      <c r="C83" s="218"/>
+      <c r="D83" s="218"/>
+      <c r="E83" s="218"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="208" t="s">
+      <c r="A84" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="208"/>
-      <c r="C84" s="208"/>
-      <c r="D84" s="208"/>
-      <c r="E84" s="208"/>
-      <c r="F84" s="208"/>
+      <c r="B84" s="226"/>
+      <c r="C84" s="226"/>
+      <c r="D84" s="226"/>
+      <c r="E84" s="226"/>
+      <c r="F84" s="226"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="217" t="s">
+      <c r="A85" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="217"/>
-      <c r="C85" s="217"/>
-      <c r="D85" s="217"/>
-      <c r="E85" s="217"/>
-      <c r="F85" s="217"/>
+      <c r="B85" s="222"/>
+      <c r="C85" s="222"/>
+      <c r="D85" s="222"/>
+      <c r="E85" s="222"/>
+      <c r="F85" s="222"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -8341,26 +9256,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="215"/>
-      <c r="C87" s="215"/>
-      <c r="D87" s="215"/>
-      <c r="E87" s="215"/>
+      <c r="B87" s="219"/>
+      <c r="C87" s="219"/>
+      <c r="D87" s="219"/>
+      <c r="E87" s="219"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="207" t="s">
+      <c r="A88" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="207"/>
-      <c r="C88" s="207"/>
-      <c r="D88" s="207"/>
-      <c r="E88" s="207"/>
-      <c r="F88" s="207"/>
+      <c r="B88" s="225"/>
+      <c r="C88" s="225"/>
+      <c r="D88" s="225"/>
+      <c r="E88" s="225"/>
+      <c r="F88" s="225"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="212"/>
-      <c r="C90" s="213"/>
-      <c r="D90" s="213"/>
+      <c r="B90" s="216"/>
+      <c r="C90" s="217"/>
+      <c r="D90" s="217"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8370,6 +9285,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -8382,38 +9329,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{75FCB284-520E-4A97-B300-C16C15782673}">
@@ -8697,13 +9612,13 @@
       <c r="F29" s="95"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="219" t="s">
+      <c r="A30" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="219"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
+      <c r="B30" s="228"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
       <c r="F30" s="96"/>
     </row>
     <row r="31" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9160,10 +10075,10 @@
     </row>
     <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="85"/>
-      <c r="B81" s="220" t="s">
+      <c r="B81" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="221"/>
+      <c r="C81" s="230"/>
       <c r="D81" s="136"/>
       <c r="E81" s="137">
         <f>E77-E79</f>
@@ -9181,30 +10096,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="138"/>
-      <c r="B83" s="222"/>
-      <c r="C83" s="223"/>
-      <c r="D83" s="223"/>
-      <c r="E83" s="223"/>
+      <c r="B83" s="231"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
       <c r="F83" s="139"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="224" t="s">
+      <c r="A84" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="224"/>
-      <c r="C84" s="224"/>
-      <c r="D84" s="224"/>
-      <c r="E84" s="224"/>
+      <c r="B84" s="233"/>
+      <c r="C84" s="233"/>
+      <c r="D84" s="233"/>
+      <c r="E84" s="233"/>
       <c r="F84" s="68"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="225" t="s">
+      <c r="A85" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="225"/>
-      <c r="C85" s="225"/>
-      <c r="D85" s="225"/>
-      <c r="E85" s="225"/>
+      <c r="B85" s="234"/>
+      <c r="C85" s="234"/>
+      <c r="D85" s="234"/>
+      <c r="E85" s="234"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,42 +10139,42 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="218" t="s">
+      <c r="A88" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="218"/>
-      <c r="C88" s="218"/>
-      <c r="D88" s="218"/>
-      <c r="E88" s="218"/>
-      <c r="F88" s="218"/>
+      <c r="B88" s="227"/>
+      <c r="C88" s="227"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="227"/>
+      <c r="F88" s="227"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="202"/>
-      <c r="C89" s="202"/>
-      <c r="D89" s="202"/>
-      <c r="E89" s="202"/>
+      <c r="B89" s="213"/>
+      <c r="C89" s="213"/>
+      <c r="D89" s="213"/>
+      <c r="E89" s="213"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="203" t="s">
+      <c r="A90" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="203"/>
-      <c r="C90" s="203"/>
-      <c r="D90" s="203"/>
-      <c r="E90" s="203"/>
-      <c r="F90" s="203"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="214"/>
+      <c r="D90" s="214"/>
+      <c r="E90" s="214"/>
+      <c r="F90" s="214"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="204" t="s">
+      <c r="A91" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="204"/>
-      <c r="C91" s="204"/>
-      <c r="D91" s="204"/>
-      <c r="E91" s="204"/>
-      <c r="F91" s="204"/>
+      <c r="B91" s="215"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="215"/>
+      <c r="F91" s="215"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -9271,26 +10186,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="196"/>
-      <c r="D93" s="196"/>
-      <c r="E93" s="196"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="207"/>
+      <c r="E93" s="207"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="197" t="s">
+      <c r="A94" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="197"/>
-      <c r="C94" s="197"/>
-      <c r="D94" s="197"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
+      <c r="B94" s="208"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="208"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="208"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="198"/>
-      <c r="C96" s="199"/>
-      <c r="D96" s="199"/>
+      <c r="B96" s="209"/>
+      <c r="C96" s="210"/>
+      <c r="D96" s="210"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -9300,18 +10215,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B93:E93"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B93:E93"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="lessThan" allowBlank="1" showInputMessage="1" sqref="B34 B36 B38" xr:uid="{BCF51A12-FE4C-4F8E-A623-C146E32783A8}">
@@ -10051,10 +10966,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="85"/>
-      <c r="B81" s="220" t="s">
+      <c r="B81" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="221"/>
+      <c r="C81" s="230"/>
       <c r="D81" s="136"/>
       <c r="E81" s="137">
         <v>563.38</v>
@@ -10071,30 +10986,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="138"/>
-      <c r="B83" s="222"/>
-      <c r="C83" s="223"/>
-      <c r="D83" s="228"/>
-      <c r="E83" s="228"/>
+      <c r="B83" s="231"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="237"/>
+      <c r="E83" s="237"/>
       <c r="F83" s="152"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="224" t="s">
+      <c r="A84" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="224"/>
-      <c r="C84" s="224"/>
-      <c r="D84" s="229"/>
-      <c r="E84" s="229"/>
+      <c r="B84" s="233"/>
+      <c r="C84" s="233"/>
+      <c r="D84" s="238"/>
+      <c r="E84" s="238"/>
       <c r="F84" s="81"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="225" t="s">
+      <c r="A85" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="225"/>
-      <c r="C85" s="225"/>
-      <c r="D85" s="230"/>
-      <c r="E85" s="230"/>
+      <c r="B85" s="234"/>
+      <c r="C85" s="234"/>
+      <c r="D85" s="239"/>
+      <c r="E85" s="239"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -10114,21 +11029,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="197" t="s">
+      <c r="A88" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="197"/>
-      <c r="C88" s="197"/>
-      <c r="D88" s="197"/>
-      <c r="E88" s="197"/>
-      <c r="F88" s="197"/>
+      <c r="B88" s="208"/>
+      <c r="C88" s="208"/>
+      <c r="D88" s="208"/>
+      <c r="E88" s="208"/>
+      <c r="F88" s="208"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="85"/>
-      <c r="B89" s="226"/>
-      <c r="C89" s="226"/>
-      <c r="D89" s="227"/>
-      <c r="E89" s="227"/>
+      <c r="B89" s="235"/>
+      <c r="C89" s="235"/>
+      <c r="D89" s="236"/>
+      <c r="E89" s="236"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -10715,19 +11630,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="46"/>
-      <c r="B77" s="200"/>
-      <c r="C77" s="200"/>
-      <c r="D77" s="200"/>
+      <c r="B77" s="211"/>
+      <c r="C77" s="211"/>
+      <c r="D77" s="211"/>
       <c r="E77" s="142"/>
       <c r="F77" s="46"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="46"/>
-      <c r="B78" s="201" t="s">
+      <c r="B78" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="201"/>
-      <c r="D78" s="201"/>
+      <c r="C78" s="212"/>
+      <c r="D78" s="212"/>
       <c r="E78" s="142">
         <v>0</v>
       </c>
@@ -10735,9 +11650,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="46"/>
-      <c r="B79" s="200"/>
-      <c r="C79" s="200"/>
-      <c r="D79" s="200"/>
+      <c r="B79" s="211"/>
+      <c r="C79" s="211"/>
+      <c r="D79" s="211"/>
       <c r="E79" s="142"/>
       <c r="F79" s="46"/>
     </row>
@@ -10772,31 +11687,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="202"/>
-      <c r="C83" s="202"/>
-      <c r="D83" s="202"/>
-      <c r="E83" s="202"/>
+      <c r="B83" s="213"/>
+      <c r="C83" s="213"/>
+      <c r="D83" s="213"/>
+      <c r="E83" s="213"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="203" t="s">
+      <c r="A84" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="203"/>
-      <c r="C84" s="203"/>
-      <c r="D84" s="203"/>
-      <c r="E84" s="203"/>
-      <c r="F84" s="203"/>
+      <c r="B84" s="214"/>
+      <c r="C84" s="214"/>
+      <c r="D84" s="214"/>
+      <c r="E84" s="214"/>
+      <c r="F84" s="214"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="204" t="s">
+      <c r="A85" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="204"/>
-      <c r="C85" s="204"/>
-      <c r="D85" s="204"/>
-      <c r="E85" s="204"/>
-      <c r="F85" s="204"/>
+      <c r="B85" s="215"/>
+      <c r="C85" s="215"/>
+      <c r="D85" s="215"/>
+      <c r="E85" s="215"/>
+      <c r="F85" s="215"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="46"/>
@@ -10808,26 +11723,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="46"/>
-      <c r="B87" s="196"/>
-      <c r="C87" s="196"/>
-      <c r="D87" s="196"/>
-      <c r="E87" s="196"/>
+      <c r="B87" s="207"/>
+      <c r="C87" s="207"/>
+      <c r="D87" s="207"/>
+      <c r="E87" s="207"/>
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="197" t="s">
+      <c r="A88" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="197"/>
-      <c r="C88" s="197"/>
-      <c r="D88" s="197"/>
-      <c r="E88" s="197"/>
-      <c r="F88" s="197"/>
+      <c r="B88" s="208"/>
+      <c r="C88" s="208"/>
+      <c r="D88" s="208"/>
+      <c r="E88" s="208"/>
+      <c r="F88" s="208"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="198"/>
-      <c r="C90" s="199"/>
-      <c r="D90" s="199"/>
+      <c r="B90" s="209"/>
+      <c r="C90" s="210"/>
+      <c r="D90" s="210"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10837,16 +11752,20 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B51:D51"/>
@@ -10863,24 +11782,20 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Factures_Excel/1112 - Vignoble Kobloth et Fils Inc.xlsx
+++ b/Factures_Excel/1112 - Vignoble Kobloth et Fils Inc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396B2E75-6F2A-47E4-87FD-92B964B64CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE31D5E-48DC-4B4A-9F66-172A9AD876A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="17-12-12" sheetId="7" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Activités" sheetId="5" r:id="rId10"/>
     <sheet name="2024-11-02 - 24-24579" sheetId="14" r:id="rId11"/>
     <sheet name="2025-02-01 - 25-24742" sheetId="15" r:id="rId12"/>
+    <sheet name="2025-03-01 - 25-24826" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="dnrServices" localSheetId="8">OFFSET(#REF!,,,COUNTA(#REF!)-1,1)</definedName>
@@ -44,6 +45,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'18-02-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-11-02 - 24-24579'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2025-02-01 - 25-24742'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-01 - 25-24826'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'23-05-13'!$A$1:$F$95</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'23-10-12'!$A$1:$F$95</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'28-06-13'!$A$1:$F$95</definedName>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="116">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -416,6 +418,12 @@
   </si>
   <si>
     <t>25-24742</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24826</t>
   </si>
 </sst>
 </file>
@@ -1488,38 +1496,74 @@
     <xf numFmtId="168" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1533,27 +1577,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1601,27 +1630,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1839,6 +1847,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AFEEB8-03DB-B31D-7907-F81433705A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12289" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4948C4E5-7B50-1E36-EAF8-022B79AA9ECD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,14 +2792,14 @@
       <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="69"/>
@@ -2746,199 +2820,199 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
+      <c r="B34" s="221"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
       <c r="E34" s="49"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
+      <c r="B35" s="221"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="221"/>
       <c r="E35" s="49"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
-      <c r="B36" s="205" t="s">
+      <c r="B36" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="49"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
+      <c r="B37" s="221"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="221"/>
       <c r="E37" s="49"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
+      <c r="B38" s="221"/>
+      <c r="C38" s="221"/>
+      <c r="D38" s="221"/>
       <c r="E38" s="49"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="46"/>
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
       <c r="E39" s="49"/>
       <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="221"/>
+      <c r="D40" s="221"/>
       <c r="E40" s="49"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
       <c r="E41" s="49"/>
       <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
       <c r="E42" s="49"/>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
-      <c r="B43" s="205"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
       <c r="E43" s="49"/>
       <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
-      <c r="B44" s="205"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
       <c r="E44" s="49"/>
       <c r="F44" s="46"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
-      <c r="B45" s="205" t="s">
+      <c r="B45" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="205"/>
-      <c r="D45" s="205"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
       <c r="E45" s="49"/>
       <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="205"/>
-      <c r="C46" s="205"/>
-      <c r="D46" s="205"/>
+      <c r="B46" s="221"/>
+      <c r="C46" s="221"/>
+      <c r="D46" s="221"/>
       <c r="E46" s="49"/>
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="205"/>
+      <c r="B47" s="221"/>
+      <c r="C47" s="221"/>
+      <c r="D47" s="221"/>
       <c r="E47" s="49"/>
       <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
-      <c r="B48" s="205" t="s">
+      <c r="B48" s="221" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="205"/>
-      <c r="D48" s="205"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="221"/>
       <c r="E48" s="49"/>
       <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
-      <c r="B49" s="205"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="205"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="221"/>
+      <c r="D49" s="221"/>
       <c r="E49" s="49"/>
       <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="221"/>
+      <c r="C50" s="221"/>
+      <c r="D50" s="221"/>
       <c r="E50" s="49"/>
       <c r="F50" s="46"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
-      <c r="B51" s="205" t="s">
+      <c r="B51" s="221" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="205"/>
-      <c r="D51" s="205"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="221"/>
       <c r="E51" s="49"/>
       <c r="F51" s="46"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="221"/>
       <c r="E52" s="49"/>
       <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="205"/>
-      <c r="D53" s="205"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
       <c r="E53" s="49"/>
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
-      <c r="B54" s="205" t="s">
+      <c r="B54" s="221" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="205"/>
-      <c r="D54" s="205"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="221"/>
       <c r="E54" s="49"/>
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="221"/>
       <c r="E55" s="49"/>
       <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
+      <c r="B56" s="221"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="221"/>
       <c r="E56" s="49"/>
       <c r="F56" s="46"/>
     </row>
@@ -2954,137 +3028,137 @@
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
+      <c r="B58" s="221"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
       <c r="E58" s="49"/>
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
-      <c r="B59" s="205"/>
-      <c r="C59" s="205"/>
-      <c r="D59" s="205"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
       <c r="E59" s="49"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="221"/>
+      <c r="D60" s="221"/>
       <c r="E60" s="49"/>
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="221"/>
       <c r="E61" s="49"/>
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
       <c r="E62" s="49"/>
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
+      <c r="B63" s="221"/>
+      <c r="C63" s="221"/>
+      <c r="D63" s="221"/>
       <c r="E63" s="49"/>
       <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="46"/>
-      <c r="B64" s="205"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
       <c r="E64" s="49"/>
       <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="46"/>
-      <c r="B65" s="205"/>
-      <c r="C65" s="205"/>
-      <c r="D65" s="205"/>
+      <c r="B65" s="221"/>
+      <c r="C65" s="221"/>
+      <c r="D65" s="221"/>
       <c r="E65" s="49"/>
       <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="46"/>
-      <c r="B66" s="205"/>
-      <c r="C66" s="205"/>
-      <c r="D66" s="205"/>
+      <c r="B66" s="221"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="221"/>
       <c r="E66" s="49"/>
       <c r="F66" s="46"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="46"/>
-      <c r="B67" s="205"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
       <c r="E67" s="49"/>
       <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="46"/>
-      <c r="B68" s="205"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="205"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="221"/>
+      <c r="D68" s="221"/>
       <c r="E68" s="49"/>
       <c r="F68" s="46"/>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="46"/>
-      <c r="B69" s="205"/>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="221"/>
+      <c r="D69" s="221"/>
       <c r="E69" s="49"/>
       <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
-      <c r="B70" s="205"/>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
+      <c r="B70" s="221"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
       <c r="E70" s="49"/>
       <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="46"/>
-      <c r="B71" s="205"/>
-      <c r="C71" s="205"/>
-      <c r="D71" s="205"/>
+      <c r="B71" s="221"/>
+      <c r="C71" s="221"/>
+      <c r="D71" s="221"/>
       <c r="E71" s="49"/>
       <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
-      <c r="B72" s="205"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="205"/>
+      <c r="B72" s="221"/>
+      <c r="C72" s="221"/>
+      <c r="D72" s="221"/>
       <c r="E72" s="49"/>
       <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="46"/>
-      <c r="B73" s="205"/>
-      <c r="C73" s="205"/>
-      <c r="D73" s="205"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="221"/>
       <c r="E73" s="49"/>
       <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="46"/>
-      <c r="B74" s="205"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="205"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="221"/>
       <c r="E74" s="49"/>
       <c r="F74" s="46"/>
     </row>
@@ -3191,19 +3265,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="211"/>
-      <c r="C83" s="211"/>
-      <c r="D83" s="211"/>
+      <c r="B83" s="216"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="216"/>
       <c r="E83" s="57"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="212" t="s">
+      <c r="B84" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="212"/>
+      <c r="C84" s="217"/>
+      <c r="D84" s="217"/>
       <c r="E84" s="57">
         <v>0</v>
       </c>
@@ -3211,9 +3285,9 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="211"/>
-      <c r="C85" s="211"/>
-      <c r="D85" s="211"/>
+      <c r="B85" s="216"/>
+      <c r="C85" s="216"/>
+      <c r="D85" s="216"/>
       <c r="E85" s="57"/>
       <c r="F85" s="46"/>
     </row>
@@ -3248,31 +3322,31 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="213"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="213"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="214" t="s">
+      <c r="A90" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="214"/>
-      <c r="C90" s="214"/>
-      <c r="D90" s="214"/>
-      <c r="E90" s="214"/>
-      <c r="F90" s="214"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="219"/>
+      <c r="D90" s="219"/>
+      <c r="E90" s="219"/>
+      <c r="F90" s="219"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="215" t="s">
+      <c r="A91" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="215"/>
-      <c r="C91" s="215"/>
-      <c r="D91" s="215"/>
-      <c r="E91" s="215"/>
-      <c r="F91" s="215"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -3284,26 +3358,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="207"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="207"/>
-      <c r="E93" s="207"/>
+      <c r="B93" s="212"/>
+      <c r="C93" s="212"/>
+      <c r="D93" s="212"/>
+      <c r="E93" s="212"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="208" t="s">
+      <c r="A94" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="208"/>
-      <c r="C94" s="208"/>
-      <c r="D94" s="208"/>
-      <c r="E94" s="208"/>
-      <c r="F94" s="208"/>
+      <c r="B94" s="213"/>
+      <c r="C94" s="213"/>
+      <c r="D94" s="213"/>
+      <c r="E94" s="213"/>
+      <c r="F94" s="213"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="209"/>
-      <c r="C96" s="210"/>
-      <c r="D96" s="210"/>
+      <c r="B96" s="214"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="215"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -3313,15 +3387,35 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
@@ -3334,35 +3428,15 @@
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B85 B12:B20 B34:B74" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -3370,7 +3444,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="122" scale="47" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="122" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3397,10 +3471,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="240" t="s">
+      <c r="B1" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="240"/>
+      <c r="C1" s="247"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4038,13 +4112,13 @@
       <c r="F29" s="95"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="228" t="s">
+      <c r="A30" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="228"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
+      <c r="B30" s="235"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="235"/>
       <c r="F30" s="96"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4497,10 +4571,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="85"/>
-      <c r="B81" s="241" t="s">
+      <c r="B81" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="242"/>
+      <c r="C81" s="249"/>
       <c r="D81" s="203"/>
       <c r="E81" s="204">
         <v>563.38</v>
@@ -4517,30 +4591,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="138"/>
-      <c r="B83" s="231"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="232"/>
-      <c r="E83" s="232"/>
+      <c r="B83" s="238"/>
+      <c r="C83" s="239"/>
+      <c r="D83" s="239"/>
+      <c r="E83" s="239"/>
       <c r="F83" s="139"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="233" t="s">
+      <c r="A84" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="233"/>
-      <c r="C84" s="233"/>
-      <c r="D84" s="233"/>
-      <c r="E84" s="233"/>
+      <c r="B84" s="240"/>
+      <c r="C84" s="240"/>
+      <c r="D84" s="240"/>
+      <c r="E84" s="240"/>
       <c r="F84" s="68"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="234" t="s">
+      <c r="A85" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="234"/>
-      <c r="C85" s="234"/>
-      <c r="D85" s="234"/>
-      <c r="E85" s="234"/>
+      <c r="B85" s="241"/>
+      <c r="C85" s="241"/>
+      <c r="D85" s="241"/>
+      <c r="E85" s="241"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4560,14 +4634,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="227" t="s">
+      <c r="A88" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="227"/>
-      <c r="C88" s="227"/>
-      <c r="D88" s="227"/>
-      <c r="E88" s="227"/>
-      <c r="F88" s="227"/>
+      <c r="B88" s="234"/>
+      <c r="C88" s="234"/>
+      <c r="D88" s="234"/>
+      <c r="E88" s="234"/>
+      <c r="F88" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4587,6 +4661,817 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA184A58-2B7F-4F91-99B2-0099C45B2C35}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="81"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="81"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="81"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="81"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="81"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="81"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="81"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="85"/>
+      <c r="B21" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="85"/>
+      <c r="B23" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="85"/>
+      <c r="B24" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="85"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="86"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="85"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="92"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="235"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="96"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="98"/>
+      <c r="B32" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="98"/>
+      <c r="B34" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="205"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="98"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="98"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="98"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="98"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="98"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="98"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="98"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="98"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="205"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="98"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="205"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="98"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="205"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="98"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="205"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="98"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="98"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="98"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="205"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="98"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="205"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="98"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="98"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="205"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="98"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="205"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="98"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="205"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="98"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="205"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="98"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="205"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="98"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="205"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="98"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="205"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="98"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="205"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="98"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="205"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="98"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="205"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="98"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="205"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="98"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="205"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="98"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="208"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="98"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="177"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="98"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="210"/>
+      <c r="D65" s="211"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="98"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="201"/>
+      <c r="D66" s="202"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="98"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="202"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="98"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="98"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="85"/>
+      <c r="B69" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="120"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="121">
+        <v>490</v>
+      </c>
+      <c r="F69" s="121"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="85"/>
+      <c r="B70" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="59"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="123">
+        <v>0</v>
+      </c>
+      <c r="F70" s="123"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="85"/>
+      <c r="B71" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="59"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="123">
+        <v>0</v>
+      </c>
+      <c r="F71" s="123"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="85"/>
+      <c r="B72" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="59"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="123">
+        <v>0</v>
+      </c>
+      <c r="F72" s="123"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="85"/>
+      <c r="B73" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="120"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="125">
+        <v>490</v>
+      </c>
+      <c r="F73" s="125"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="85"/>
+      <c r="B74" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="126">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="59"/>
+      <c r="E74" s="127">
+        <v>24.5</v>
+      </c>
+      <c r="F74" s="127"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="85"/>
+      <c r="B75" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="129">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="59"/>
+      <c r="E75" s="130">
+        <v>48.88</v>
+      </c>
+      <c r="F75" s="127"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="85"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="85"/>
+      <c r="B77" s="131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="120"/>
+      <c r="D77" s="132"/>
+      <c r="E77" s="133">
+        <v>563.38</v>
+      </c>
+      <c r="F77" s="134"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="85"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="128"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="135"/>
+      <c r="F78" s="128"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="85"/>
+      <c r="B79" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="128"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="88">
+        <v>0</v>
+      </c>
+      <c r="F79" s="88"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="85"/>
+      <c r="B80" s="120"/>
+      <c r="C80" s="128"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="135"/>
+      <c r="F80" s="128"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="85"/>
+      <c r="B81" s="248" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="249"/>
+      <c r="D81" s="203"/>
+      <c r="E81" s="204">
+        <v>563.38</v>
+      </c>
+      <c r="F81" s="88"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="85"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="138"/>
+      <c r="B83" s="238"/>
+      <c r="C83" s="239"/>
+      <c r="D83" s="239"/>
+      <c r="E83" s="239"/>
+      <c r="F83" s="139"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="240" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="240"/>
+      <c r="C84" s="240"/>
+      <c r="D84" s="240"/>
+      <c r="E84" s="240"/>
+      <c r="F84" s="68"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="241" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="241"/>
+      <c r="C85" s="241"/>
+      <c r="D85" s="241"/>
+      <c r="E85" s="241"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="140"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="140"/>
+      <c r="B87" s="140"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="234"/>
+      <c r="C88" s="234"/>
+      <c r="D88" s="234"/>
+      <c r="E88" s="234"/>
+      <c r="F88" s="234"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3850C19E-8954-4917-92E9-544971ABFD39}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4769,7 +5654,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="85"/>
       <c r="B21" s="86" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C21" s="86"/>
       <c r="D21" s="87"/>
@@ -4796,7 +5681,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="85"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="86" t="s">
         <v>95</v>
       </c>
       <c r="C24" s="85"/>
@@ -4840,7 +5725,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="92" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F28" s="92"/>
     </row>
@@ -4853,13 +5738,13 @@
       <c r="F29" s="95"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="228" t="s">
+      <c r="A30" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="228"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
+      <c r="B30" s="235"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="235"/>
       <c r="F30" s="96"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4893,7 +5778,7 @@
       <c r="B34" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="243"/>
+      <c r="C34" s="205"/>
       <c r="D34" s="105"/>
       <c r="E34" s="105"/>
       <c r="F34" s="105"/>
@@ -4901,7 +5786,7 @@
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="98"/>
       <c r="B35" s="102"/>
-      <c r="C35" s="244"/>
+      <c r="C35" s="206"/>
       <c r="D35" s="105"/>
       <c r="E35" s="105"/>
       <c r="F35" s="105"/>
@@ -4909,7 +5794,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="98"/>
       <c r="B36" s="102"/>
-      <c r="C36" s="243"/>
+      <c r="C36" s="205"/>
       <c r="D36" s="105"/>
       <c r="E36" s="105"/>
       <c r="F36" s="105"/>
@@ -4917,7 +5802,7 @@
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="98"/>
       <c r="B37" s="102"/>
-      <c r="C37" s="243"/>
+      <c r="C37" s="205"/>
       <c r="D37" s="105"/>
       <c r="E37" s="105"/>
       <c r="F37" s="105"/>
@@ -4925,7 +5810,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="98"/>
       <c r="B38" s="102"/>
-      <c r="C38" s="243"/>
+      <c r="C38" s="205"/>
       <c r="D38" s="105"/>
       <c r="E38" s="105"/>
       <c r="F38" s="105"/>
@@ -4933,7 +5818,7 @@
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="98"/>
       <c r="B39" s="102"/>
-      <c r="C39" s="243"/>
+      <c r="C39" s="205"/>
       <c r="D39" s="105"/>
       <c r="E39" s="105"/>
       <c r="F39" s="105"/>
@@ -4941,7 +5826,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="98"/>
       <c r="B40" s="102"/>
-      <c r="C40" s="244"/>
+      <c r="C40" s="206"/>
       <c r="D40" s="105"/>
       <c r="E40" s="105"/>
       <c r="F40" s="105"/>
@@ -4949,7 +5834,7 @@
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="98"/>
       <c r="B41" s="102"/>
-      <c r="C41" s="243"/>
+      <c r="C41" s="205"/>
       <c r="D41" s="105"/>
       <c r="E41" s="105"/>
       <c r="F41" s="105"/>
@@ -4957,7 +5842,7 @@
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="98"/>
       <c r="B42" s="102"/>
-      <c r="C42" s="243"/>
+      <c r="C42" s="205"/>
       <c r="D42" s="105"/>
       <c r="E42" s="105"/>
       <c r="F42" s="105"/>
@@ -4965,7 +5850,7 @@
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="98"/>
       <c r="B43" s="102"/>
-      <c r="C43" s="243"/>
+      <c r="C43" s="205"/>
       <c r="D43" s="105"/>
       <c r="E43" s="105"/>
       <c r="F43" s="105"/>
@@ -4973,7 +5858,7 @@
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="98"/>
       <c r="B44" s="102"/>
-      <c r="C44" s="243"/>
+      <c r="C44" s="205"/>
       <c r="D44" s="105"/>
       <c r="E44" s="105"/>
       <c r="F44" s="105"/>
@@ -4981,7 +5866,7 @@
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="98"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="243"/>
+      <c r="C45" s="205"/>
       <c r="D45" s="105"/>
       <c r="E45" s="105"/>
       <c r="F45" s="105"/>
@@ -4989,7 +5874,7 @@
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="98"/>
       <c r="B46" s="102"/>
-      <c r="C46" s="243"/>
+      <c r="C46" s="205"/>
       <c r="D46" s="105"/>
       <c r="E46" s="105"/>
       <c r="F46" s="105"/>
@@ -4997,7 +5882,7 @@
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="98"/>
       <c r="B47" s="102"/>
-      <c r="C47" s="243"/>
+      <c r="C47" s="205"/>
       <c r="D47" s="105"/>
       <c r="E47" s="105"/>
       <c r="F47" s="105"/>
@@ -5005,7 +5890,7 @@
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="98"/>
       <c r="B48" s="102"/>
-      <c r="C48" s="243"/>
+      <c r="C48" s="205"/>
       <c r="D48" s="105"/>
       <c r="E48" s="105"/>
       <c r="F48" s="105"/>
@@ -5013,7 +5898,7 @@
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="98"/>
       <c r="B49" s="102"/>
-      <c r="C49" s="243"/>
+      <c r="C49" s="205"/>
       <c r="D49" s="105"/>
       <c r="E49" s="105"/>
       <c r="F49" s="105"/>
@@ -5021,15 +5906,15 @@
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="98"/>
       <c r="B50" s="102"/>
-      <c r="C50" s="245"/>
-      <c r="D50" s="245"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
       <c r="E50" s="105"/>
       <c r="F50" s="105"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="98"/>
       <c r="B51" s="102"/>
-      <c r="C51" s="243"/>
+      <c r="C51" s="205"/>
       <c r="D51" s="105"/>
       <c r="E51" s="105"/>
       <c r="F51" s="105"/>
@@ -5037,7 +5922,7 @@
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="98"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="243"/>
+      <c r="C52" s="205"/>
       <c r="D52" s="105"/>
       <c r="E52" s="105"/>
       <c r="F52" s="105"/>
@@ -5045,7 +5930,7 @@
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="98"/>
       <c r="B53" s="102"/>
-      <c r="C53" s="243"/>
+      <c r="C53" s="205"/>
       <c r="D53" s="105"/>
       <c r="E53" s="105"/>
       <c r="F53" s="105"/>
@@ -5053,7 +5938,7 @@
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="98"/>
       <c r="B54" s="102"/>
-      <c r="C54" s="243"/>
+      <c r="C54" s="205"/>
       <c r="D54" s="105"/>
       <c r="E54" s="105"/>
       <c r="F54" s="105"/>
@@ -5061,7 +5946,7 @@
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="98"/>
       <c r="B55" s="102"/>
-      <c r="C55" s="243"/>
+      <c r="C55" s="205"/>
       <c r="D55" s="105"/>
       <c r="E55" s="105"/>
       <c r="F55" s="105"/>
@@ -5069,7 +5954,7 @@
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="98"/>
       <c r="B56" s="102"/>
-      <c r="C56" s="243"/>
+      <c r="C56" s="205"/>
       <c r="D56" s="105"/>
       <c r="E56" s="105"/>
       <c r="F56" s="105"/>
@@ -5077,7 +5962,7 @@
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="98"/>
       <c r="B57" s="102"/>
-      <c r="C57" s="243"/>
+      <c r="C57" s="205"/>
       <c r="D57" s="105"/>
       <c r="E57" s="105"/>
       <c r="F57" s="105"/>
@@ -5085,7 +5970,7 @@
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="98"/>
       <c r="B58" s="102"/>
-      <c r="C58" s="243"/>
+      <c r="C58" s="205"/>
       <c r="D58" s="105"/>
       <c r="E58" s="105"/>
       <c r="F58" s="105"/>
@@ -5093,7 +5978,7 @@
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="98"/>
       <c r="B59" s="102"/>
-      <c r="C59" s="243"/>
+      <c r="C59" s="205"/>
       <c r="D59" s="105"/>
       <c r="E59" s="105"/>
       <c r="F59" s="105"/>
@@ -5101,7 +5986,7 @@
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="98"/>
       <c r="B60" s="102"/>
-      <c r="C60" s="243"/>
+      <c r="C60" s="205"/>
       <c r="D60" s="105"/>
       <c r="E60" s="105"/>
       <c r="F60" s="105"/>
@@ -5109,7 +5994,7 @@
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="98"/>
       <c r="B61" s="102"/>
-      <c r="C61" s="243"/>
+      <c r="C61" s="205"/>
       <c r="D61" s="105"/>
       <c r="E61" s="105"/>
       <c r="F61" s="105"/>
@@ -5117,7 +6002,7 @@
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="98"/>
       <c r="B62" s="102"/>
-      <c r="C62" s="243"/>
+      <c r="C62" s="205"/>
       <c r="D62" s="105"/>
       <c r="E62" s="105"/>
       <c r="F62" s="105"/>
@@ -5125,8 +6010,8 @@
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="98"/>
       <c r="B63" s="196"/>
-      <c r="C63" s="246"/>
-      <c r="D63" s="247"/>
+      <c r="C63" s="208"/>
+      <c r="D63" s="209"/>
       <c r="E63" s="105"/>
       <c r="F63" s="105"/>
     </row>
@@ -5141,8 +6026,8 @@
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="98"/>
       <c r="B65" s="102"/>
-      <c r="C65" s="248"/>
-      <c r="D65" s="249"/>
+      <c r="C65" s="199"/>
+      <c r="D65" s="200"/>
       <c r="E65" s="105"/>
       <c r="F65" s="105"/>
     </row>
@@ -5308,10 +6193,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="85"/>
-      <c r="B81" s="241" t="s">
+      <c r="B81" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="242"/>
+      <c r="C81" s="249"/>
       <c r="D81" s="203"/>
       <c r="E81" s="204">
         <v>563.38</v>
@@ -5328,30 +6213,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="138"/>
-      <c r="B83" s="231"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="232"/>
-      <c r="E83" s="232"/>
+      <c r="B83" s="238"/>
+      <c r="C83" s="239"/>
+      <c r="D83" s="239"/>
+      <c r="E83" s="239"/>
       <c r="F83" s="139"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="233" t="s">
+      <c r="A84" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="233"/>
-      <c r="C84" s="233"/>
-      <c r="D84" s="233"/>
-      <c r="E84" s="233"/>
+      <c r="B84" s="240"/>
+      <c r="C84" s="240"/>
+      <c r="D84" s="240"/>
+      <c r="E84" s="240"/>
       <c r="F84" s="68"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="234" t="s">
+      <c r="A85" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="234"/>
-      <c r="C85" s="234"/>
-      <c r="D85" s="234"/>
-      <c r="E85" s="234"/>
+      <c r="B85" s="241"/>
+      <c r="C85" s="241"/>
+      <c r="D85" s="241"/>
+      <c r="E85" s="241"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5371,14 +6256,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="227" t="s">
+      <c r="A88" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="227"/>
-      <c r="C88" s="227"/>
-      <c r="D88" s="227"/>
-      <c r="E88" s="227"/>
-      <c r="F88" s="227"/>
+      <c r="B88" s="234"/>
+      <c r="C88" s="234"/>
+      <c r="D88" s="234"/>
+      <c r="E88" s="234"/>
+      <c r="F88" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5391,7 +6276,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5549,14 +6434,14 @@
       <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="69"/>
@@ -5577,95 +6462,95 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
+      <c r="B34" s="221"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
       <c r="E34" s="49"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
+      <c r="B35" s="221"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="221"/>
       <c r="E35" s="49"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
-      <c r="B36" s="205" t="s">
+      <c r="B36" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="49"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
+      <c r="B37" s="221"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="221"/>
       <c r="E37" s="49"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
+      <c r="B38" s="221"/>
+      <c r="C38" s="221"/>
+      <c r="D38" s="221"/>
       <c r="E38" s="49"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="46"/>
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
       <c r="E39" s="49"/>
       <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="221"/>
+      <c r="D40" s="221"/>
       <c r="E40" s="49"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
       <c r="E41" s="49"/>
       <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
       <c r="E42" s="49"/>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
-      <c r="B43" s="205"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
       <c r="E43" s="49"/>
       <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
-      <c r="B44" s="205"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
       <c r="E44" s="49"/>
       <c r="F44" s="46"/>
     </row>
@@ -5707,17 +6592,17 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
-      <c r="B49" s="205"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="205"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="221"/>
+      <c r="D49" s="221"/>
       <c r="E49" s="49"/>
       <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="221"/>
+      <c r="C50" s="221"/>
+      <c r="D50" s="221"/>
       <c r="E50" s="49"/>
       <c r="F50" s="46"/>
     </row>
@@ -5733,41 +6618,41 @@
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="221"/>
       <c r="E52" s="49"/>
       <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="205"/>
-      <c r="D53" s="205"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
       <c r="E53" s="49"/>
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="205"/>
-      <c r="D54" s="205"/>
+      <c r="B54" s="221"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="221"/>
       <c r="E54" s="49"/>
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="221"/>
       <c r="E55" s="49"/>
       <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
+      <c r="B56" s="221"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="221"/>
       <c r="E56" s="49"/>
       <c r="F56" s="46"/>
     </row>
@@ -5781,137 +6666,137 @@
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
+      <c r="B58" s="221"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
       <c r="E58" s="49"/>
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
-      <c r="B59" s="205"/>
-      <c r="C59" s="205"/>
-      <c r="D59" s="205"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
       <c r="E59" s="49"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="221"/>
+      <c r="D60" s="221"/>
       <c r="E60" s="49"/>
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="221"/>
       <c r="E61" s="49"/>
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
       <c r="E62" s="49"/>
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
+      <c r="B63" s="221"/>
+      <c r="C63" s="221"/>
+      <c r="D63" s="221"/>
       <c r="E63" s="49"/>
       <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="46"/>
-      <c r="B64" s="205"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
       <c r="E64" s="49"/>
       <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="46"/>
-      <c r="B65" s="205"/>
-      <c r="C65" s="205"/>
-      <c r="D65" s="205"/>
+      <c r="B65" s="221"/>
+      <c r="C65" s="221"/>
+      <c r="D65" s="221"/>
       <c r="E65" s="49"/>
       <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="46"/>
-      <c r="B66" s="205"/>
-      <c r="C66" s="205"/>
-      <c r="D66" s="205"/>
+      <c r="B66" s="221"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="221"/>
       <c r="E66" s="49"/>
       <c r="F66" s="46"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="46"/>
-      <c r="B67" s="205"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
       <c r="E67" s="49"/>
       <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="46"/>
-      <c r="B68" s="205"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="205"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="221"/>
+      <c r="D68" s="221"/>
       <c r="E68" s="49"/>
       <c r="F68" s="46"/>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="46"/>
-      <c r="B69" s="205"/>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="221"/>
+      <c r="D69" s="221"/>
       <c r="E69" s="49"/>
       <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
-      <c r="B70" s="205"/>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
+      <c r="B70" s="221"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
       <c r="E70" s="49"/>
       <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="46"/>
-      <c r="B71" s="205"/>
-      <c r="C71" s="205"/>
-      <c r="D71" s="205"/>
+      <c r="B71" s="221"/>
+      <c r="C71" s="221"/>
+      <c r="D71" s="221"/>
       <c r="E71" s="49"/>
       <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
-      <c r="B72" s="205"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="205"/>
+      <c r="B72" s="221"/>
+      <c r="C72" s="221"/>
+      <c r="D72" s="221"/>
       <c r="E72" s="49"/>
       <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="46"/>
-      <c r="B73" s="205"/>
-      <c r="C73" s="205"/>
-      <c r="D73" s="205"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="221"/>
       <c r="E73" s="49"/>
       <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="46"/>
-      <c r="B74" s="205"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="205"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="221"/>
       <c r="E74" s="49"/>
       <c r="F74" s="46"/>
     </row>
@@ -6018,19 +6903,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="211"/>
-      <c r="C83" s="211"/>
-      <c r="D83" s="211"/>
+      <c r="B83" s="216"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="216"/>
       <c r="E83" s="57"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="212" t="s">
+      <c r="B84" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="212"/>
+      <c r="C84" s="217"/>
+      <c r="D84" s="217"/>
       <c r="E84" s="57">
         <v>0</v>
       </c>
@@ -6038,9 +6923,9 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="211"/>
-      <c r="C85" s="211"/>
-      <c r="D85" s="211"/>
+      <c r="B85" s="216"/>
+      <c r="C85" s="216"/>
+      <c r="D85" s="216"/>
       <c r="E85" s="57"/>
       <c r="F85" s="46"/>
     </row>
@@ -6075,31 +6960,31 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="213"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="213"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="214" t="s">
+      <c r="A90" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="214"/>
-      <c r="C90" s="214"/>
-      <c r="D90" s="214"/>
-      <c r="E90" s="214"/>
-      <c r="F90" s="214"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="219"/>
+      <c r="D90" s="219"/>
+      <c r="E90" s="219"/>
+      <c r="F90" s="219"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="215" t="s">
+      <c r="A91" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="215"/>
-      <c r="C91" s="215"/>
-      <c r="D91" s="215"/>
-      <c r="E91" s="215"/>
-      <c r="F91" s="215"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -6111,26 +6996,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="207"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="207"/>
-      <c r="E93" s="207"/>
+      <c r="B93" s="212"/>
+      <c r="C93" s="212"/>
+      <c r="D93" s="212"/>
+      <c r="E93" s="212"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="208" t="s">
+      <c r="A94" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="208"/>
-      <c r="C94" s="208"/>
-      <c r="D94" s="208"/>
-      <c r="E94" s="208"/>
-      <c r="F94" s="208"/>
+      <c r="B94" s="213"/>
+      <c r="C94" s="213"/>
+      <c r="D94" s="213"/>
+      <c r="E94" s="213"/>
+      <c r="F94" s="213"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="209"/>
-      <c r="C96" s="210"/>
-      <c r="D96" s="210"/>
+      <c r="B96" s="214"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="215"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -6140,29 +7025,14 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A94:F94"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B64:D64"/>
@@ -6177,14 +7047,29 @@
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B85 B12:B20 B34:B74" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -6192,7 +7077,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="122" scale="47" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="122" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6351,14 +7236,14 @@
       <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="69"/>
@@ -6379,95 +7264,95 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
+      <c r="B34" s="221"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
       <c r="E34" s="49"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
+      <c r="B35" s="221"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="221"/>
       <c r="E35" s="49"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
-      <c r="B36" s="205" t="s">
+      <c r="B36" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="49"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
+      <c r="B37" s="221"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="221"/>
       <c r="E37" s="49"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
+      <c r="B38" s="221"/>
+      <c r="C38" s="221"/>
+      <c r="D38" s="221"/>
       <c r="E38" s="49"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="46"/>
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="221" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
       <c r="E39" s="49"/>
       <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="221"/>
+      <c r="D40" s="221"/>
       <c r="E40" s="49"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
       <c r="E41" s="49"/>
       <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
       <c r="E42" s="49"/>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
-      <c r="B43" s="205"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
       <c r="E43" s="49"/>
       <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
-      <c r="B44" s="205"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
       <c r="E44" s="49"/>
       <c r="F44" s="46"/>
     </row>
@@ -6509,17 +7394,17 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
-      <c r="B49" s="205"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="205"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="221"/>
+      <c r="D49" s="221"/>
       <c r="E49" s="49"/>
       <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="221"/>
+      <c r="C50" s="221"/>
+      <c r="D50" s="221"/>
       <c r="E50" s="49"/>
       <c r="F50" s="46"/>
     </row>
@@ -6535,41 +7420,41 @@
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="221"/>
       <c r="E52" s="49"/>
       <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="205"/>
-      <c r="D53" s="205"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
       <c r="E53" s="49"/>
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="205"/>
-      <c r="D54" s="205"/>
+      <c r="B54" s="221"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="221"/>
       <c r="E54" s="49"/>
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="221"/>
       <c r="E55" s="49"/>
       <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
+      <c r="B56" s="221"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="221"/>
       <c r="E56" s="49"/>
       <c r="F56" s="46"/>
     </row>
@@ -6583,137 +7468,137 @@
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
+      <c r="B58" s="221"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
       <c r="E58" s="49"/>
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
-      <c r="B59" s="205"/>
-      <c r="C59" s="205"/>
-      <c r="D59" s="205"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
       <c r="E59" s="49"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="221"/>
+      <c r="D60" s="221"/>
       <c r="E60" s="49"/>
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="221"/>
       <c r="E61" s="49"/>
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
       <c r="E62" s="49"/>
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
+      <c r="B63" s="221"/>
+      <c r="C63" s="221"/>
+      <c r="D63" s="221"/>
       <c r="E63" s="49"/>
       <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="46"/>
-      <c r="B64" s="205"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
       <c r="E64" s="49"/>
       <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="46"/>
-      <c r="B65" s="205"/>
-      <c r="C65" s="205"/>
-      <c r="D65" s="205"/>
+      <c r="B65" s="221"/>
+      <c r="C65" s="221"/>
+      <c r="D65" s="221"/>
       <c r="E65" s="49"/>
       <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="46"/>
-      <c r="B66" s="205"/>
-      <c r="C66" s="205"/>
-      <c r="D66" s="205"/>
+      <c r="B66" s="221"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="221"/>
       <c r="E66" s="49"/>
       <c r="F66" s="46"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="46"/>
-      <c r="B67" s="205"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
       <c r="E67" s="49"/>
       <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="46"/>
-      <c r="B68" s="205"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="205"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="221"/>
+      <c r="D68" s="221"/>
       <c r="E68" s="49"/>
       <c r="F68" s="46"/>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="46"/>
-      <c r="B69" s="205"/>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="221"/>
+      <c r="D69" s="221"/>
       <c r="E69" s="49"/>
       <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
-      <c r="B70" s="205"/>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
+      <c r="B70" s="221"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
       <c r="E70" s="49"/>
       <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="46"/>
-      <c r="B71" s="205"/>
-      <c r="C71" s="205"/>
-      <c r="D71" s="205"/>
+      <c r="B71" s="221"/>
+      <c r="C71" s="221"/>
+      <c r="D71" s="221"/>
       <c r="E71" s="49"/>
       <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
-      <c r="B72" s="205"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="205"/>
+      <c r="B72" s="221"/>
+      <c r="C72" s="221"/>
+      <c r="D72" s="221"/>
       <c r="E72" s="49"/>
       <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="46"/>
-      <c r="B73" s="205"/>
-      <c r="C73" s="205"/>
-      <c r="D73" s="205"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="221"/>
       <c r="E73" s="49"/>
       <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="46"/>
-      <c r="B74" s="205"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="205"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="221"/>
       <c r="E74" s="49"/>
       <c r="F74" s="46"/>
     </row>
@@ -6820,19 +7705,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="211"/>
-      <c r="C83" s="211"/>
-      <c r="D83" s="211"/>
+      <c r="B83" s="216"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="216"/>
       <c r="E83" s="57"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="212" t="s">
+      <c r="B84" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="212"/>
+      <c r="C84" s="217"/>
+      <c r="D84" s="217"/>
       <c r="E84" s="57">
         <v>0</v>
       </c>
@@ -6840,9 +7725,9 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="211"/>
-      <c r="C85" s="211"/>
-      <c r="D85" s="211"/>
+      <c r="B85" s="216"/>
+      <c r="C85" s="216"/>
+      <c r="D85" s="216"/>
       <c r="E85" s="57"/>
       <c r="F85" s="46"/>
     </row>
@@ -6877,31 +7762,31 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="213"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="213"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="214" t="s">
+      <c r="A90" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="214"/>
-      <c r="C90" s="214"/>
-      <c r="D90" s="214"/>
-      <c r="E90" s="214"/>
-      <c r="F90" s="214"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="219"/>
+      <c r="D90" s="219"/>
+      <c r="E90" s="219"/>
+      <c r="F90" s="219"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="215" t="s">
+      <c r="A91" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="215"/>
-      <c r="C91" s="215"/>
-      <c r="D91" s="215"/>
-      <c r="E91" s="215"/>
-      <c r="F91" s="215"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -6913,26 +7798,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="207"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="207"/>
-      <c r="E93" s="207"/>
+      <c r="B93" s="212"/>
+      <c r="C93" s="212"/>
+      <c r="D93" s="212"/>
+      <c r="E93" s="212"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="208" t="s">
+      <c r="A94" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="208"/>
-      <c r="C94" s="208"/>
-      <c r="D94" s="208"/>
-      <c r="E94" s="208"/>
-      <c r="F94" s="208"/>
+      <c r="B94" s="213"/>
+      <c r="C94" s="213"/>
+      <c r="D94" s="213"/>
+      <c r="E94" s="213"/>
+      <c r="F94" s="213"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="209"/>
-      <c r="C96" s="210"/>
-      <c r="D96" s="210"/>
+      <c r="B96" s="214"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="215"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -6942,15 +7827,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
@@ -6963,30 +7863,15 @@
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B85 B12:B20 B34:B74" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -6994,7 +7879,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="122" scale="47" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="122" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7153,14 +8038,14 @@
       <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="69"/>
@@ -7181,95 +8066,95 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
+      <c r="B34" s="221"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
       <c r="E34" s="49"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
+      <c r="B35" s="221"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="221"/>
       <c r="E35" s="49"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
-      <c r="B36" s="205" t="s">
+      <c r="B36" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="49"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
+      <c r="B37" s="221"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="221"/>
       <c r="E37" s="49"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
+      <c r="B38" s="221"/>
+      <c r="C38" s="221"/>
+      <c r="D38" s="221"/>
       <c r="E38" s="49"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="46"/>
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
       <c r="E39" s="49"/>
       <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="221"/>
+      <c r="D40" s="221"/>
       <c r="E40" s="49"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
       <c r="E41" s="49"/>
       <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
       <c r="E42" s="49"/>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
-      <c r="B43" s="205"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
       <c r="E43" s="49"/>
       <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
-      <c r="B44" s="205"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
       <c r="E44" s="49"/>
       <c r="F44" s="46"/>
     </row>
@@ -7311,17 +8196,17 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
-      <c r="B49" s="205"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="205"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="221"/>
+      <c r="D49" s="221"/>
       <c r="E49" s="49"/>
       <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="221"/>
+      <c r="C50" s="221"/>
+      <c r="D50" s="221"/>
       <c r="E50" s="49"/>
       <c r="F50" s="46"/>
     </row>
@@ -7337,41 +8222,41 @@
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="221"/>
       <c r="E52" s="49"/>
       <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="205"/>
-      <c r="D53" s="205"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
       <c r="E53" s="49"/>
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="205"/>
-      <c r="D54" s="205"/>
+      <c r="B54" s="221"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="221"/>
       <c r="E54" s="49"/>
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="221"/>
       <c r="E55" s="49"/>
       <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
+      <c r="B56" s="221"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="221"/>
       <c r="E56" s="49"/>
       <c r="F56" s="46"/>
     </row>
@@ -7385,137 +8270,137 @@
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
+      <c r="B58" s="221"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
       <c r="E58" s="49"/>
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
-      <c r="B59" s="205"/>
-      <c r="C59" s="205"/>
-      <c r="D59" s="205"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
       <c r="E59" s="49"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="221"/>
+      <c r="D60" s="221"/>
       <c r="E60" s="49"/>
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="221"/>
       <c r="E61" s="49"/>
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
       <c r="E62" s="49"/>
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
+      <c r="B63" s="221"/>
+      <c r="C63" s="221"/>
+      <c r="D63" s="221"/>
       <c r="E63" s="49"/>
       <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="46"/>
-      <c r="B64" s="205"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
       <c r="E64" s="49"/>
       <c r="F64" s="46"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="46"/>
-      <c r="B65" s="205"/>
-      <c r="C65" s="205"/>
-      <c r="D65" s="205"/>
+      <c r="B65" s="221"/>
+      <c r="C65" s="221"/>
+      <c r="D65" s="221"/>
       <c r="E65" s="49"/>
       <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="46"/>
-      <c r="B66" s="205"/>
-      <c r="C66" s="205"/>
-      <c r="D66" s="205"/>
+      <c r="B66" s="221"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="221"/>
       <c r="E66" s="49"/>
       <c r="F66" s="46"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="46"/>
-      <c r="B67" s="205"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
       <c r="E67" s="49"/>
       <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="46"/>
-      <c r="B68" s="205"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="205"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="221"/>
+      <c r="D68" s="221"/>
       <c r="E68" s="49"/>
       <c r="F68" s="46"/>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="46"/>
-      <c r="B69" s="205"/>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="221"/>
+      <c r="D69" s="221"/>
       <c r="E69" s="49"/>
       <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
-      <c r="B70" s="205"/>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
+      <c r="B70" s="221"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
       <c r="E70" s="49"/>
       <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="46"/>
-      <c r="B71" s="205"/>
-      <c r="C71" s="205"/>
-      <c r="D71" s="205"/>
+      <c r="B71" s="221"/>
+      <c r="C71" s="221"/>
+      <c r="D71" s="221"/>
       <c r="E71" s="49"/>
       <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
-      <c r="B72" s="205"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="205"/>
+      <c r="B72" s="221"/>
+      <c r="C72" s="221"/>
+      <c r="D72" s="221"/>
       <c r="E72" s="49"/>
       <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="46"/>
-      <c r="B73" s="205"/>
-      <c r="C73" s="205"/>
-      <c r="D73" s="205"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="221"/>
       <c r="E73" s="49"/>
       <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="46"/>
-      <c r="B74" s="205"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="205"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="221"/>
       <c r="E74" s="49"/>
       <c r="F74" s="46"/>
     </row>
@@ -7622,19 +8507,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="211"/>
-      <c r="C83" s="211"/>
-      <c r="D83" s="211"/>
+      <c r="B83" s="216"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="216"/>
       <c r="E83" s="57"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="212" t="s">
+      <c r="B84" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="212"/>
+      <c r="C84" s="217"/>
+      <c r="D84" s="217"/>
       <c r="E84" s="57">
         <v>0</v>
       </c>
@@ -7642,9 +8527,9 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="211"/>
-      <c r="C85" s="211"/>
-      <c r="D85" s="211"/>
+      <c r="B85" s="216"/>
+      <c r="C85" s="216"/>
+      <c r="D85" s="216"/>
       <c r="E85" s="57"/>
       <c r="F85" s="46"/>
     </row>
@@ -7679,31 +8564,31 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="213"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="213"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="214" t="s">
+      <c r="A90" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="214"/>
-      <c r="C90" s="214"/>
-      <c r="D90" s="214"/>
-      <c r="E90" s="214"/>
-      <c r="F90" s="214"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="219"/>
+      <c r="D90" s="219"/>
+      <c r="E90" s="219"/>
+      <c r="F90" s="219"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="215" t="s">
+      <c r="A91" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="215"/>
-      <c r="C91" s="215"/>
-      <c r="D91" s="215"/>
-      <c r="E91" s="215"/>
-      <c r="F91" s="215"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -7715,26 +8600,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="207"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="207"/>
-      <c r="E93" s="207"/>
+      <c r="B93" s="212"/>
+      <c r="C93" s="212"/>
+      <c r="D93" s="212"/>
+      <c r="E93" s="212"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="208" t="s">
+      <c r="A94" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="208"/>
-      <c r="C94" s="208"/>
-      <c r="D94" s="208"/>
-      <c r="E94" s="208"/>
-      <c r="F94" s="208"/>
+      <c r="B94" s="213"/>
+      <c r="C94" s="213"/>
+      <c r="D94" s="213"/>
+      <c r="E94" s="213"/>
+      <c r="F94" s="213"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="209"/>
-      <c r="C96" s="210"/>
-      <c r="D96" s="210"/>
+      <c r="B96" s="214"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="215"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -7744,15 +8629,27 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B62:D62"/>
@@ -7768,27 +8665,15 @@
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B85 B12:B20 B34:B74" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -7796,7 +8681,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="122" scale="47" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="122" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7945,14 +8830,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="223" t="s">
+      <c r="A30" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="223"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -7973,285 +8858,285 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="220" t="s">
+      <c r="B34" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="220"/>
-      <c r="D34" s="220"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="220"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="220"/>
+      <c r="B35" s="225"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="225"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="220" t="s">
+      <c r="B36" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="220"/>
-      <c r="D36" s="220"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="220"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
+      <c r="B37" s="225"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="225"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="220" t="s">
+      <c r="B38" s="225" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="225"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="220"/>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
+      <c r="B39" s="225"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="225"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="220" t="s">
+      <c r="B40" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="220"/>
-      <c r="D40" s="220"/>
+      <c r="C40" s="225"/>
+      <c r="D40" s="225"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
-      <c r="D41" s="220"/>
+      <c r="B41" s="225"/>
+      <c r="C41" s="225"/>
+      <c r="D41" s="225"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="220" t="s">
+      <c r="B42" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="225"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="220"/>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
+      <c r="B43" s="225"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="225"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="220" t="s">
+      <c r="B44" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="220"/>
-      <c r="D44" s="220"/>
+      <c r="C44" s="225"/>
+      <c r="D44" s="225"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
+      <c r="B45" s="225"/>
+      <c r="C45" s="225"/>
+      <c r="D45" s="225"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="220" t="s">
+      <c r="B46" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="220"/>
-      <c r="D46" s="220"/>
+      <c r="C46" s="225"/>
+      <c r="D46" s="225"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="220"/>
-      <c r="C47" s="220"/>
-      <c r="D47" s="220"/>
+      <c r="B47" s="225"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="225"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="220" t="s">
+      <c r="B48" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="220"/>
-      <c r="C49" s="220"/>
-      <c r="D49" s="220"/>
+      <c r="B49" s="225"/>
+      <c r="C49" s="225"/>
+      <c r="D49" s="225"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="220" t="s">
+      <c r="B50" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="220"/>
-      <c r="D50" s="220"/>
+      <c r="C50" s="225"/>
+      <c r="D50" s="225"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
+      <c r="B51" s="225"/>
+      <c r="C51" s="225"/>
+      <c r="D51" s="225"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="220" t="s">
+      <c r="B52" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="220"/>
-      <c r="D52" s="220"/>
+      <c r="C52" s="225"/>
+      <c r="D52" s="225"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="220"/>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
+      <c r="B53" s="225"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="220" t="s">
+      <c r="B54" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="220"/>
-      <c r="D54" s="220"/>
+      <c r="C54" s="225"/>
+      <c r="D54" s="225"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="220"/>
-      <c r="C55" s="220"/>
-      <c r="D55" s="220"/>
+      <c r="B55" s="225"/>
+      <c r="C55" s="225"/>
+      <c r="D55" s="225"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="220" t="s">
+      <c r="B56" s="225" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="220"/>
-      <c r="D56" s="220"/>
+      <c r="C56" s="225"/>
+      <c r="D56" s="225"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="220"/>
-      <c r="C57" s="220"/>
-      <c r="D57" s="220"/>
+      <c r="B57" s="225"/>
+      <c r="C57" s="225"/>
+      <c r="D57" s="225"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="220" t="s">
+      <c r="B58" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="220"/>
-      <c r="D58" s="220"/>
+      <c r="C58" s="225"/>
+      <c r="D58" s="225"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="220"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
+      <c r="B59" s="225"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="225"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="220" t="s">
+      <c r="B60" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="220"/>
-      <c r="D60" s="220"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="225"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="220"/>
-      <c r="C61" s="220"/>
-      <c r="D61" s="220"/>
+      <c r="B61" s="225"/>
+      <c r="C61" s="225"/>
+      <c r="D61" s="225"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="220"/>
-      <c r="C62" s="220"/>
-      <c r="D62" s="220"/>
+      <c r="B62" s="225"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="225"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="220"/>
-      <c r="C63" s="220"/>
-      <c r="D63" s="220"/>
+      <c r="B63" s="225"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="225"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="220"/>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
+      <c r="B64" s="225"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="225"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -8281,17 +9166,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="220"/>
-      <c r="C67" s="220"/>
-      <c r="D67" s="220"/>
+      <c r="B67" s="225"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="225"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="220"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220"/>
+      <c r="B68" s="225"/>
+      <c r="C68" s="225"/>
+      <c r="D68" s="225"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -8398,19 +9283,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="224"/>
-      <c r="C77" s="224"/>
-      <c r="D77" s="224"/>
+      <c r="B77" s="227"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="227"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="221" t="s">
+      <c r="B78" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="221"/>
-      <c r="D78" s="221"/>
+      <c r="C78" s="232"/>
+      <c r="D78" s="232"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -8418,9 +9303,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="224"/>
-      <c r="C79" s="224"/>
-      <c r="D79" s="224"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -8455,31 +9340,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="218"/>
-      <c r="C83" s="218"/>
-      <c r="D83" s="218"/>
-      <c r="E83" s="218"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="230"/>
+      <c r="D83" s="230"/>
+      <c r="E83" s="230"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="226" t="s">
+      <c r="A84" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="226"/>
-      <c r="C84" s="226"/>
-      <c r="D84" s="226"/>
-      <c r="E84" s="226"/>
-      <c r="F84" s="226"/>
+      <c r="B84" s="224"/>
+      <c r="C84" s="224"/>
+      <c r="D84" s="224"/>
+      <c r="E84" s="224"/>
+      <c r="F84" s="224"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="222" t="s">
+      <c r="A85" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="222"/>
-      <c r="C85" s="222"/>
-      <c r="D85" s="222"/>
-      <c r="E85" s="222"/>
-      <c r="F85" s="222"/>
+      <c r="B85" s="233"/>
+      <c r="C85" s="233"/>
+      <c r="D85" s="233"/>
+      <c r="E85" s="233"/>
+      <c r="F85" s="233"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -8491,26 +9376,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="219"/>
-      <c r="C87" s="219"/>
-      <c r="D87" s="219"/>
-      <c r="E87" s="219"/>
+      <c r="B87" s="231"/>
+      <c r="C87" s="231"/>
+      <c r="D87" s="231"/>
+      <c r="E87" s="231"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="225" t="s">
+      <c r="A88" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="225"/>
-      <c r="C88" s="225"/>
-      <c r="D88" s="225"/>
-      <c r="E88" s="225"/>
-      <c r="F88" s="225"/>
+      <c r="B88" s="223"/>
+      <c r="C88" s="223"/>
+      <c r="D88" s="223"/>
+      <c r="E88" s="223"/>
+      <c r="F88" s="223"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="216"/>
-      <c r="C90" s="217"/>
-      <c r="D90" s="217"/>
+      <c r="B90" s="228"/>
+      <c r="C90" s="229"/>
+      <c r="D90" s="229"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8520,34 +9405,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -8564,6 +9421,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -8573,7 +9458,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8722,14 +9607,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="223" t="s">
+      <c r="A30" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="223"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -8750,273 +9635,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="220"/>
-      <c r="C34" s="220"/>
-      <c r="D34" s="220"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="220" t="s">
+      <c r="B35" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="220"/>
-      <c r="D35" s="220"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="225"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="220"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="220" t="s">
+      <c r="B37" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="225"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="225"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="220" t="s">
+      <c r="B39" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="225"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="220"/>
-      <c r="C40" s="220"/>
-      <c r="D40" s="220"/>
+      <c r="B40" s="225"/>
+      <c r="C40" s="225"/>
+      <c r="D40" s="225"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="220" t="s">
+      <c r="B41" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="220"/>
-      <c r="D41" s="220"/>
+      <c r="C41" s="225"/>
+      <c r="D41" s="225"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="225"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="220" t="s">
+      <c r="B43" s="225" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="225"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="220"/>
-      <c r="C44" s="220"/>
-      <c r="D44" s="220"/>
+      <c r="B44" s="225"/>
+      <c r="C44" s="225"/>
+      <c r="D44" s="225"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="220" t="s">
+      <c r="B45" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
+      <c r="C45" s="225"/>
+      <c r="D45" s="225"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="220"/>
-      <c r="C46" s="220"/>
-      <c r="D46" s="220"/>
+      <c r="B46" s="225"/>
+      <c r="C46" s="225"/>
+      <c r="D46" s="225"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="220" t="s">
+      <c r="B47" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="220"/>
-      <c r="D47" s="220"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="225"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
+      <c r="B48" s="225"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="220" t="s">
+      <c r="B49" s="225" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="220"/>
-      <c r="D49" s="220"/>
+      <c r="C49" s="225"/>
+      <c r="D49" s="225"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="220"/>
-      <c r="C50" s="220"/>
-      <c r="D50" s="220"/>
+      <c r="B50" s="225"/>
+      <c r="C50" s="225"/>
+      <c r="D50" s="225"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
+      <c r="B51" s="225"/>
+      <c r="C51" s="225"/>
+      <c r="D51" s="225"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="220"/>
-      <c r="C52" s="220"/>
-      <c r="D52" s="220"/>
+      <c r="B52" s="225"/>
+      <c r="C52" s="225"/>
+      <c r="D52" s="225"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="220"/>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
+      <c r="B53" s="225"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="220"/>
-      <c r="C54" s="220"/>
-      <c r="D54" s="220"/>
+      <c r="B54" s="225"/>
+      <c r="C54" s="225"/>
+      <c r="D54" s="225"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="220"/>
-      <c r="C55" s="220"/>
-      <c r="D55" s="220"/>
+      <c r="B55" s="225"/>
+      <c r="C55" s="225"/>
+      <c r="D55" s="225"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="220"/>
-      <c r="C56" s="220"/>
-      <c r="D56" s="220"/>
+      <c r="B56" s="225"/>
+      <c r="C56" s="225"/>
+      <c r="D56" s="225"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="220"/>
-      <c r="C57" s="220"/>
-      <c r="D57" s="220"/>
+      <c r="B57" s="225"/>
+      <c r="C57" s="225"/>
+      <c r="D57" s="225"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="220"/>
-      <c r="C58" s="220"/>
-      <c r="D58" s="220"/>
+      <c r="B58" s="225"/>
+      <c r="C58" s="225"/>
+      <c r="D58" s="225"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="220"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
+      <c r="B59" s="225"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="225"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="220"/>
-      <c r="C60" s="220"/>
-      <c r="D60" s="220"/>
+      <c r="B60" s="225"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="225"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="220"/>
-      <c r="C61" s="220"/>
-      <c r="D61" s="220"/>
+      <c r="B61" s="225"/>
+      <c r="C61" s="225"/>
+      <c r="D61" s="225"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="220"/>
-      <c r="C62" s="220"/>
-      <c r="D62" s="220"/>
+      <c r="B62" s="225"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="225"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="220"/>
-      <c r="C63" s="220"/>
-      <c r="D63" s="220"/>
+      <c r="B63" s="225"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="225"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="220"/>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
+      <c r="B64" s="225"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="225"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9046,17 +9931,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="220"/>
-      <c r="C67" s="220"/>
-      <c r="D67" s="220"/>
+      <c r="B67" s="225"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="225"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="220"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220"/>
+      <c r="B68" s="225"/>
+      <c r="C68" s="225"/>
+      <c r="D68" s="225"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -9163,19 +10048,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="224"/>
-      <c r="C77" s="224"/>
-      <c r="D77" s="224"/>
+      <c r="B77" s="227"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="227"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="221" t="s">
+      <c r="B78" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="221"/>
-      <c r="D78" s="221"/>
+      <c r="C78" s="232"/>
+      <c r="D78" s="232"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -9183,9 +10068,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="224"/>
-      <c r="C79" s="224"/>
-      <c r="D79" s="224"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -9220,31 +10105,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="218"/>
-      <c r="C83" s="218"/>
-      <c r="D83" s="218"/>
-      <c r="E83" s="218"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="230"/>
+      <c r="D83" s="230"/>
+      <c r="E83" s="230"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="226" t="s">
+      <c r="A84" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="226"/>
-      <c r="C84" s="226"/>
-      <c r="D84" s="226"/>
-      <c r="E84" s="226"/>
-      <c r="F84" s="226"/>
+      <c r="B84" s="224"/>
+      <c r="C84" s="224"/>
+      <c r="D84" s="224"/>
+      <c r="E84" s="224"/>
+      <c r="F84" s="224"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="222" t="s">
+      <c r="A85" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="222"/>
-      <c r="C85" s="222"/>
-      <c r="D85" s="222"/>
-      <c r="E85" s="222"/>
-      <c r="F85" s="222"/>
+      <c r="B85" s="233"/>
+      <c r="C85" s="233"/>
+      <c r="D85" s="233"/>
+      <c r="E85" s="233"/>
+      <c r="F85" s="233"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -9256,26 +10141,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="219"/>
-      <c r="C87" s="219"/>
-      <c r="D87" s="219"/>
-      <c r="E87" s="219"/>
+      <c r="B87" s="231"/>
+      <c r="C87" s="231"/>
+      <c r="D87" s="231"/>
+      <c r="E87" s="231"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="225" t="s">
+      <c r="A88" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="225"/>
-      <c r="C88" s="225"/>
-      <c r="D88" s="225"/>
-      <c r="E88" s="225"/>
-      <c r="F88" s="225"/>
+      <c r="B88" s="223"/>
+      <c r="C88" s="223"/>
+      <c r="D88" s="223"/>
+      <c r="E88" s="223"/>
+      <c r="F88" s="223"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="216"/>
-      <c r="C90" s="217"/>
-      <c r="D90" s="217"/>
+      <c r="B90" s="228"/>
+      <c r="C90" s="229"/>
+      <c r="D90" s="229"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9285,14 +10170,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -9305,30 +10206,14 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{75FCB284-520E-4A97-B300-C16C15782673}">
@@ -9337,7 +10222,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9612,13 +10497,13 @@
       <c r="F29" s="95"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="228" t="s">
+      <c r="A30" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="228"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
+      <c r="B30" s="235"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="235"/>
       <c r="F30" s="96"/>
     </row>
     <row r="31" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10075,10 +10960,10 @@
     </row>
     <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="85"/>
-      <c r="B81" s="229" t="s">
+      <c r="B81" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="230"/>
+      <c r="C81" s="237"/>
       <c r="D81" s="136"/>
       <c r="E81" s="137">
         <f>E77-E79</f>
@@ -10096,30 +10981,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="138"/>
-      <c r="B83" s="231"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="232"/>
-      <c r="E83" s="232"/>
+      <c r="B83" s="238"/>
+      <c r="C83" s="239"/>
+      <c r="D83" s="239"/>
+      <c r="E83" s="239"/>
       <c r="F83" s="139"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="233" t="s">
+      <c r="A84" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="233"/>
-      <c r="C84" s="233"/>
-      <c r="D84" s="233"/>
-      <c r="E84" s="233"/>
+      <c r="B84" s="240"/>
+      <c r="C84" s="240"/>
+      <c r="D84" s="240"/>
+      <c r="E84" s="240"/>
       <c r="F84" s="68"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="234" t="s">
+      <c r="A85" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="234"/>
-      <c r="C85" s="234"/>
-      <c r="D85" s="234"/>
-      <c r="E85" s="234"/>
+      <c r="B85" s="241"/>
+      <c r="C85" s="241"/>
+      <c r="D85" s="241"/>
+      <c r="E85" s="241"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10139,42 +11024,42 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="227" t="s">
+      <c r="A88" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="227"/>
-      <c r="C88" s="227"/>
-      <c r="D88" s="227"/>
-      <c r="E88" s="227"/>
-      <c r="F88" s="227"/>
+      <c r="B88" s="234"/>
+      <c r="C88" s="234"/>
+      <c r="D88" s="234"/>
+      <c r="E88" s="234"/>
+      <c r="F88" s="234"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="213"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="213"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
+      <c r="E89" s="218"/>
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="214" t="s">
+      <c r="A90" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="214"/>
-      <c r="C90" s="214"/>
-      <c r="D90" s="214"/>
-      <c r="E90" s="214"/>
-      <c r="F90" s="214"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="219"/>
+      <c r="D90" s="219"/>
+      <c r="E90" s="219"/>
+      <c r="F90" s="219"/>
     </row>
     <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="215" t="s">
+      <c r="A91" s="220" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="215"/>
-      <c r="C91" s="215"/>
-      <c r="D91" s="215"/>
-      <c r="E91" s="215"/>
-      <c r="F91" s="215"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
@@ -10186,26 +11071,26 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="207"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="207"/>
-      <c r="E93" s="207"/>
+      <c r="B93" s="212"/>
+      <c r="C93" s="212"/>
+      <c r="D93" s="212"/>
+      <c r="E93" s="212"/>
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="208" t="s">
+      <c r="A94" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="208"/>
-      <c r="C94" s="208"/>
-      <c r="D94" s="208"/>
-      <c r="E94" s="208"/>
-      <c r="F94" s="208"/>
+      <c r="B94" s="213"/>
+      <c r="C94" s="213"/>
+      <c r="D94" s="213"/>
+      <c r="E94" s="213"/>
+      <c r="F94" s="213"/>
     </row>
     <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="209"/>
-      <c r="C96" s="210"/>
-      <c r="D96" s="210"/>
+      <c r="B96" s="214"/>
+      <c r="C96" s="215"/>
+      <c r="D96" s="215"/>
     </row>
     <row r="97" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -10215,18 +11100,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A94:F94"/>
     <mergeCell ref="A90:F90"/>
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="lessThan" allowBlank="1" showInputMessage="1" sqref="B34 B36 B38" xr:uid="{BCF51A12-FE4C-4F8E-A623-C146E32783A8}">
@@ -10237,7 +11122,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="122" scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="122" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10507,13 +11392,13 @@
       <c r="F29" s="191"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="206" t="s">
+      <c r="A30" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="206"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="206"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
       <c r="F30" s="190"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -10966,10 +11851,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="85"/>
-      <c r="B81" s="229" t="s">
+      <c r="B81" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="230"/>
+      <c r="C81" s="237"/>
       <c r="D81" s="136"/>
       <c r="E81" s="137">
         <v>563.38</v>
@@ -10986,30 +11871,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="138"/>
-      <c r="B83" s="231"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="237"/>
-      <c r="E83" s="237"/>
+      <c r="B83" s="238"/>
+      <c r="C83" s="239"/>
+      <c r="D83" s="244"/>
+      <c r="E83" s="244"/>
       <c r="F83" s="152"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="233" t="s">
+      <c r="A84" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="233"/>
-      <c r="C84" s="233"/>
-      <c r="D84" s="238"/>
-      <c r="E84" s="238"/>
+      <c r="B84" s="240"/>
+      <c r="C84" s="240"/>
+      <c r="D84" s="245"/>
+      <c r="E84" s="245"/>
       <c r="F84" s="81"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="234" t="s">
+      <c r="A85" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="234"/>
-      <c r="C85" s="234"/>
-      <c r="D85" s="239"/>
-      <c r="E85" s="239"/>
+      <c r="B85" s="241"/>
+      <c r="C85" s="241"/>
+      <c r="D85" s="246"/>
+      <c r="E85" s="246"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -11029,21 +11914,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="208" t="s">
+      <c r="A88" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="208"/>
-      <c r="C88" s="208"/>
-      <c r="D88" s="208"/>
-      <c r="E88" s="208"/>
-      <c r="F88" s="208"/>
+      <c r="B88" s="213"/>
+      <c r="C88" s="213"/>
+      <c r="D88" s="213"/>
+      <c r="E88" s="213"/>
+      <c r="F88" s="213"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="85"/>
-      <c r="B89" s="235"/>
-      <c r="C89" s="235"/>
-      <c r="D89" s="236"/>
-      <c r="E89" s="236"/>
+      <c r="B89" s="242"/>
+      <c r="C89" s="242"/>
+      <c r="D89" s="243"/>
+      <c r="E89" s="243"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -11212,14 +12097,14 @@
       <c r="F29" s="72"/>
     </row>
     <row r="30" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="206" t="s">
+      <c r="A30" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="206"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="206"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="69"/>
@@ -11240,259 +12125,259 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
-      <c r="B33" s="205"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="205"/>
+      <c r="B33" s="221"/>
+      <c r="C33" s="221"/>
+      <c r="D33" s="221"/>
       <c r="E33" s="146"/>
       <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
+      <c r="B34" s="221"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
       <c r="E34" s="146"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
-      <c r="B35" s="205" t="s">
+      <c r="B35" s="221" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="221"/>
       <c r="E35" s="146"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
+      <c r="B36" s="221"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="146"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
+      <c r="B37" s="221"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="221"/>
       <c r="E37" s="146"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
+      <c r="B38" s="221"/>
+      <c r="C38" s="221"/>
+      <c r="D38" s="221"/>
       <c r="E38" s="146"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="46"/>
-      <c r="B39" s="205"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
+      <c r="B39" s="221"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
       <c r="E39" s="146"/>
       <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="221"/>
+      <c r="D40" s="221"/>
       <c r="E40" s="146"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
       <c r="E41" s="146"/>
       <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
-      <c r="B42" s="205"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
       <c r="E42" s="146"/>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
-      <c r="B43" s="205"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
       <c r="E43" s="146"/>
       <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
-      <c r="B44" s="205"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
       <c r="E44" s="146"/>
       <c r="F44" s="46"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
-      <c r="B45" s="205"/>
-      <c r="C45" s="205"/>
-      <c r="D45" s="205"/>
+      <c r="B45" s="221"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
       <c r="E45" s="146"/>
       <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="205"/>
-      <c r="C46" s="205"/>
-      <c r="D46" s="205"/>
+      <c r="B46" s="221"/>
+      <c r="C46" s="221"/>
+      <c r="D46" s="221"/>
       <c r="E46" s="146"/>
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="205"/>
+      <c r="B47" s="221"/>
+      <c r="C47" s="221"/>
+      <c r="D47" s="221"/>
       <c r="E47" s="146"/>
       <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
-      <c r="B48" s="205"/>
-      <c r="C48" s="205"/>
-      <c r="D48" s="205"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="221"/>
       <c r="E48" s="146"/>
       <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
-      <c r="B49" s="205"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="205"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="221"/>
+      <c r="D49" s="221"/>
       <c r="E49" s="146"/>
       <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="205"/>
+      <c r="B50" s="221"/>
+      <c r="C50" s="221"/>
+      <c r="D50" s="221"/>
       <c r="E50" s="146"/>
       <c r="F50" s="46"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
-      <c r="B51" s="205"/>
-      <c r="C51" s="205"/>
-      <c r="D51" s="205"/>
+      <c r="B51" s="221"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="221"/>
       <c r="E51" s="146"/>
       <c r="F51" s="46"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="221"/>
       <c r="E52" s="146"/>
       <c r="F52" s="46"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="205"/>
-      <c r="D53" s="205"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
       <c r="E53" s="146"/>
       <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="205"/>
-      <c r="D54" s="205"/>
+      <c r="B54" s="221"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="221"/>
       <c r="E54" s="146"/>
       <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="221"/>
       <c r="E55" s="146"/>
       <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
+      <c r="B56" s="221"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="221"/>
       <c r="E56" s="146"/>
       <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
-      <c r="B57" s="205"/>
-      <c r="C57" s="205"/>
-      <c r="D57" s="205"/>
+      <c r="B57" s="221"/>
+      <c r="C57" s="221"/>
+      <c r="D57" s="221"/>
       <c r="E57" s="146"/>
       <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
+      <c r="B58" s="221"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
       <c r="E58" s="146"/>
       <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
-      <c r="B59" s="205"/>
-      <c r="C59" s="205"/>
-      <c r="D59" s="205"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="221"/>
       <c r="E59" s="146"/>
       <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="221"/>
+      <c r="D60" s="221"/>
       <c r="E60" s="146"/>
       <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="221"/>
       <c r="E61" s="146"/>
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
       <c r="E62" s="146"/>
       <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
+      <c r="B63" s="221"/>
+      <c r="C63" s="221"/>
+      <c r="D63" s="221"/>
       <c r="E63" s="146"/>
       <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="46"/>
-      <c r="B64" s="205"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
       <c r="E64" s="146"/>
       <c r="F64" s="46"/>
     </row>
@@ -11514,17 +12399,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="46"/>
-      <c r="B67" s="205"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
       <c r="E67" s="146"/>
       <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="46"/>
-      <c r="B68" s="205"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="205"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="221"/>
+      <c r="D68" s="221"/>
       <c r="E68" s="146"/>
       <c r="F68" s="46"/>
     </row>
@@ -11630,19 +12515,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="46"/>
-      <c r="B77" s="211"/>
-      <c r="C77" s="211"/>
-      <c r="D77" s="211"/>
+      <c r="B77" s="216"/>
+      <c r="C77" s="216"/>
+      <c r="D77" s="216"/>
       <c r="E77" s="142"/>
       <c r="F77" s="46"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="46"/>
-      <c r="B78" s="212" t="s">
+      <c r="B78" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="212"/>
-      <c r="D78" s="212"/>
+      <c r="C78" s="217"/>
+      <c r="D78" s="217"/>
       <c r="E78" s="142">
         <v>0</v>
       </c>
@@ -11650,9 +12535,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="46"/>
-      <c r="B79" s="211"/>
-      <c r="C79" s="211"/>
-      <c r="D79" s="211"/>
+      <c r="B79" s="216"/>
+      <c r="C79" s="216"/>
+      <c r="D79" s="216"/>
       <c r="E79" s="142"/>
       <c r="F79" s="46"/>
     </row>
@@ -11687,31 +12572,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="213"/>
-      <c r="C83" s="213"/>
-      <c r="D83" s="213"/>
-      <c r="E83" s="213"/>
+      <c r="B83" s="218"/>
+      <c r="C83" s="218"/>
+      <c r="D83" s="218"/>
+      <c r="E83" s="218"/>
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="214" t="s">
+      <c r="A84" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="214"/>
-      <c r="C84" s="214"/>
-      <c r="D84" s="214"/>
-      <c r="E84" s="214"/>
-      <c r="F84" s="214"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="219"/>
+      <c r="D84" s="219"/>
+      <c r="E84" s="219"/>
+      <c r="F84" s="219"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="215" t="s">
+      <c r="A85" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="215"/>
-      <c r="C85" s="215"/>
-      <c r="D85" s="215"/>
-      <c r="E85" s="215"/>
-      <c r="F85" s="215"/>
+      <c r="B85" s="220"/>
+      <c r="C85" s="220"/>
+      <c r="D85" s="220"/>
+      <c r="E85" s="220"/>
+      <c r="F85" s="220"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="46"/>
@@ -11723,26 +12608,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="46"/>
-      <c r="B87" s="207"/>
-      <c r="C87" s="207"/>
-      <c r="D87" s="207"/>
-      <c r="E87" s="207"/>
+      <c r="B87" s="212"/>
+      <c r="C87" s="212"/>
+      <c r="D87" s="212"/>
+      <c r="E87" s="212"/>
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="208" t="s">
+      <c r="A88" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="208"/>
-      <c r="C88" s="208"/>
-      <c r="D88" s="208"/>
-      <c r="E88" s="208"/>
-      <c r="F88" s="208"/>
+      <c r="B88" s="213"/>
+      <c r="C88" s="213"/>
+      <c r="D88" s="213"/>
+      <c r="E88" s="213"/>
+      <c r="F88" s="213"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="209"/>
-      <c r="C90" s="210"/>
-      <c r="D90" s="210"/>
+      <c r="B90" s="214"/>
+      <c r="C90" s="215"/>
+      <c r="D90" s="215"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11752,20 +12637,20 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B77:D77"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B51:D51"/>
@@ -11782,20 +12667,20 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -11804,7 +12689,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
